--- a/1 기능 정의/project05 - 요구사항 정의서 - 형준.xlsx
+++ b/1 기능 정의/project05 - 요구사항 정의서 - 형준.xlsx
@@ -1,139 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYEONTAE\Desktop\e-Zone\1 기능 정의\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이형준\Desktop\EzenCrowdFunding\기능 정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60084095-8214-4C8B-A900-5AB95C33594A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21633" windowHeight="11665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$21</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgROmjIYZq9lDQyy9gBk6tLMKV7xg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mi6DiWTCXz4A8VU66IOZAmpu+7wtg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
-  <si>
-    <t>현태</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>로그인 및 계정관련</t>
-  </si>
-  <si>
-    <t>서희</t>
   </si>
   <si>
     <t>게시판 관련</t>
   </si>
   <si>
-    <t>용승</t>
+    <t>요구사항정의서</t>
   </si>
   <si>
     <t>여행 정보 관련</t>
   </si>
   <si>
-    <t>기범</t>
-  </si>
-  <si>
     <t>메인 컨텐츠 관련</t>
   </si>
   <si>
-    <t>형준</t>
-  </si>
-  <si>
     <t>메인 화면</t>
-  </si>
-  <si>
-    <t>요구사항정의서</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>앱</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>완료</t>
-    </r>
   </si>
   <si>
     <t>구분</t>
@@ -170,6 +83,9 @@
   </si>
   <si>
     <t>화면코드(Mobile)</t>
+  </si>
+  <si>
+    <t>사용자</t>
   </si>
   <si>
     <t>HJ - P - 001
@@ -218,30 +134,6 @@
     <t>HT – M - 009</t>
   </si>
   <si>
-    <t>HT – P - 010</t>
-  </si>
-  <si>
-    <t>HT – M - 010</t>
-  </si>
-  <si>
-    <t>HT – P - 011</t>
-  </si>
-  <si>
-    <t>HT – M - 011</t>
-  </si>
-  <si>
-    <t>HJ - P - 001</t>
-  </si>
-  <si>
-    <t>HJ - M - 001</t>
-  </si>
-  <si>
-    <t>KB – P – 013</t>
-  </si>
-  <si>
-    <t>KB – M – 013</t>
-  </si>
-  <si>
     <t>YS – P – 014
 YS – P – 015</t>
   </si>
@@ -250,29 +142,328 @@
 YS – M – 015</t>
   </si>
   <si>
-    <t>HT – P – 021</t>
+    <t>YS – P – 016</t>
   </si>
   <si>
-    <t>SH – P – 022</t>
+    <t>YS – M – 016</t>
+  </si>
+  <si>
+    <t>HT – P – 021</t>
   </si>
   <si>
     <t>KB – P – 026
 KB – P – 027</t>
   </si>
   <si>
-    <t>HJ – P – 028
-HJ – P – 029
-HJ – P – 030</t>
+    <t>현태</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>용승</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서희</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>기범</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앱</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정관련</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 (진입 화면)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 회원가입 페이지로 이동, 강연장 정보 일부 확인, 추천 강연 확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인하여 강연장 예약 및 강연 참여 예약 기능 접근 가능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름, 비밀번호, 주소, 이메일 정보를 받아서 회원가입</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연장 정보 확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연장 정보, 강연 정보 확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 내의 메뉴에서 강연장 정보로 이동하여 상세 내용을 확인 가능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연 정보 확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 내의 메뉴에서 강연 정보로 이동하여 상세 내용을 확인 가능, 검색, 카테고리를 통해서 특정 강연 검색 가능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강연장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및 강연 예약</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연장 예약</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연 예약</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연장 정보 확인 페이지에서 해당 강연장 링크를 클릭하여 강연장 예약 가능, 날짜 선택, 시간대 선택하여 예약</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연 정보를 확인하는 페이지에서 강연 정보를 확인한 후, 인원 수, 좌석을 선택한 후 예약</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연장 문의</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연장에 대한 문의 가능, 문의에 대한 답변은 관리자가 작성하며 마이페이지에서 확인 가능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 예약한 강연장, 강연 정보 확인 이전에 예약했던 목록도 확인, 강연장 문의, 강연 문의 확인 가능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 및 FAQ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 및 FAQ 확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 이용 관련 문의사항을 질문</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 관련</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 조회 및 수정, 비활성화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 컨텐츠 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 및 FAQ 등록, 수정, 삭제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용자가 등록한 Q&amp;A에 대한 답변 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관시설 관련</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관 시설 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관 시설 설명 업데이트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관 시설 예약 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>시설</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 예약자 확인 및 수정</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연 관련</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연 예약 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 강연 예약자 및 좌석확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -294,8 +485,38 @@
       <charset val="129"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -310,32 +531,7 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -346,10 +542,42 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -358,12 +586,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -377,77 +599,14 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -474,17 +633,19 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -508,6 +669,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -522,13 +696,11 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,45 +709,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -596,11 +729,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -608,126 +923,215 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,32 +1347,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG992"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" customWidth="1"/>
-    <col min="4" max="4" width="111.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.8984375" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" customWidth="1"/>
+    <col min="3" max="3" width="38.3984375" customWidth="1"/>
+    <col min="4" max="4" width="87.59765625" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" customWidth="1"/>
+    <col min="6" max="6" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="24.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="24.09765625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.09765625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="26.88671875" customWidth="1"/>
-    <col min="13" max="13" width="44" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.8984375" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="20" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" customHeight="1">
+    <row r="1" spans="1:33" ht="15.8" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -1003,24 +1407,24 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="19.5" customHeight="1">
+    <row r="2" spans="1:33" ht="19.55" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
+      <c r="B2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1040,22 +1444,22 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" ht="19.5" customHeight="1">
+    <row r="3" spans="1:33" ht="19.55" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="60"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1075,7 +1479,7 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:33" ht="19.5" hidden="1" customHeight="1">
+    <row r="4" spans="1:33" ht="19.55" hidden="1" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -1112,11 +1516,11 @@
     </row>
     <row r="5" spans="1:33" ht="50.25" hidden="1" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="3">
+      <c r="B5" s="14">
         <v>43860</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
+      <c r="C5" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
@@ -1149,7 +1553,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:33" ht="19.5" customHeight="1">
+    <row r="6" spans="1:33" ht="19.55" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -1184,46 +1588,46 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:33" ht="27.8" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="M7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="N7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="O7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="P7" s="48" t="s">
         <v>17</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1243,33 +1647,33 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29">
+    <row r="8" spans="1:33" ht="27.8" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="21">
         <v>43854</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="21">
         <v>43858</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="21">
         <v>43859</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="21">
         <v>43860</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="21">
         <v>43861</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1288,28 +1692,34 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="12">
+    <row r="9" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A9" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="5">
         <v>1</v>
       </c>
-      <c r="O9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>25</v>
+      <c r="O9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1329,28 +1739,34 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="12">
+    <row r="10" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A10" s="72"/>
+      <c r="B10" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="5">
         <v>1</v>
       </c>
-      <c r="O10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>25</v>
+      <c r="O10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1370,28 +1786,32 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="27">
+    <row r="11" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A11" s="72"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="8">
         <v>2</v>
       </c>
-      <c r="O11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>27</v>
+      <c r="O11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1411,28 +1831,32 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="27">
+    <row r="12" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A12" s="72"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="8">
         <v>1</v>
       </c>
-      <c r="O12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>29</v>
+      <c r="O12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1452,23 +1876,35 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+    <row r="13" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A13" s="72"/>
+      <c r="B13" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8">
+        <v>2</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1487,23 +1923,27 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+    <row r="14" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A14" s="72"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1522,28 +1962,32 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="27">
-        <v>2</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>31</v>
+    <row r="15" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A15" s="72"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="8">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1563,28 +2007,34 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="27">
+    <row r="16" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A16" s="72"/>
+      <c r="B16" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8">
         <v>1</v>
       </c>
-      <c r="O16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>33</v>
+      <c r="O16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1604,28 +2054,32 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="27">
-        <v>1</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>35</v>
+    <row r="17" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A17" s="72"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8">
+        <v>2</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1645,28 +2099,34 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="27">
-        <v>2</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>37</v>
+    <row r="18" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A18" s="72"/>
+      <c r="B18" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="8">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1686,28 +2146,32 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="27">
-        <v>1</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>39</v>
+    <row r="19" spans="1:33" ht="33.1" customHeight="1" thickBot="1">
+      <c r="A19" s="72"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8">
+        <v>2</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1727,29 +2191,35 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="27">
-        <v>2</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>41</v>
-      </c>
+    <row r="20" spans="1:33" ht="33.1" customHeight="1" thickTop="1">
+      <c r="A20" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="8">
+        <v>3</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" s="5"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -1768,29 +2238,31 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="27">
-        <v>2</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>43</v>
-      </c>
+    <row r="21" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A21" s="70"/>
+      <c r="B21" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="8">
+        <v>3</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="3"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -1809,29 +2281,29 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="27">
-        <v>1</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>45</v>
-      </c>
+    <row r="22" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A22" s="70"/>
+      <c r="B22" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1850,25 +2322,27 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="27">
-        <v>3</v>
-      </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+    <row r="23" spans="1:33" ht="33.1" customHeight="1">
+      <c r="A23" s="70"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -1887,29 +2361,25 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="27">
-        <v>1</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>47</v>
-      </c>
+    <row r="24" spans="1:33" ht="45.8" customHeight="1">
+      <c r="A24" s="70"/>
+      <c r="B24" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -1928,27 +2398,23 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="27">
-        <v>3</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="P25" s="10"/>
+    <row r="25" spans="1:33" ht="44.1" customHeight="1">
+      <c r="A25" s="70"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -1967,27 +2433,26 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="27">
-        <v>3</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P26" s="14"/>
+    <row r="26" spans="1:33" ht="52.5" customHeight="1">
+      <c r="A26" s="70"/>
+      <c r="B26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2006,27 +2471,23 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="27">
-        <v>3</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="P27" s="16"/>
+    <row r="27" spans="1:33" ht="15.8" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2045,27 +2506,21 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="27">
-        <v>3</v>
-      </c>
-      <c r="O28" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P28" s="16"/>
+    <row r="28" spans="1:33" ht="15.8" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -2084,25 +2539,25 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="28.8" customHeight="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="27">
-        <v>3</v>
-      </c>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
+    <row r="29" spans="1:33" ht="15.8" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2121,14 +2576,22 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="15.75" customHeight="1">
+    <row r="30" spans="1:33" ht="15.8" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="M30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -2150,14 +2613,22 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1">
+    <row r="31" spans="1:33" ht="15.8" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="2"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="M31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2179,7 +2650,7 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1">
+    <row r="32" spans="1:33" ht="15.8" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -2189,6 +2660,11 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2211,7 +2687,7 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:33" ht="15.8" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -2221,9 +2697,11 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2246,7 +2724,7 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:33" ht="15.75" customHeight="1">
+    <row r="34" spans="1:33" ht="15.8" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -2256,7 +2734,9 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="L34" s="17"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2279,7 +2759,7 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
     </row>
-    <row r="35" spans="1:33" ht="15.75" customHeight="1">
+    <row r="35" spans="1:33" ht="15.8" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -2289,11 +2769,9 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -2316,7 +2794,7 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
     </row>
-    <row r="36" spans="1:33" ht="15.75" customHeight="1">
+    <row r="36" spans="1:33" ht="15.8" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -2326,11 +2804,9 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2353,7 +2829,7 @@
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
     </row>
-    <row r="37" spans="1:33" ht="15.75" customHeight="1">
+    <row r="37" spans="1:33" ht="15.8" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -2363,11 +2839,9 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2390,7 +2864,7 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:33" ht="15.75" customHeight="1">
+    <row r="38" spans="1:33" ht="15.8" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -2400,11 +2874,9 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -2427,7 +2899,7 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
     </row>
-    <row r="39" spans="1:33" ht="15.75" customHeight="1">
+    <row r="39" spans="1:33" ht="15.8" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -2437,11 +2909,9 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -2464,7 +2934,7 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:33" ht="15.75" customHeight="1">
+    <row r="40" spans="1:33" ht="15.8" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -2499,7 +2969,7 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1">
+    <row r="41" spans="1:33" ht="15.8" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -2534,7 +3004,7 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="15.75" customHeight="1">
+    <row r="42" spans="1:33" ht="15.8" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -2569,7 +3039,7 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="15.75" customHeight="1">
+    <row r="43" spans="1:33" ht="15.8" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -2604,7 +3074,7 @@
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
     </row>
-    <row r="44" spans="1:33" ht="15.75" customHeight="1">
+    <row r="44" spans="1:33" ht="15.8" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -2639,7 +3109,7 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
     </row>
-    <row r="45" spans="1:33" ht="15.75" customHeight="1">
+    <row r="45" spans="1:33" ht="15.8" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -2674,7 +3144,7 @@
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
     </row>
-    <row r="46" spans="1:33" ht="15.75" customHeight="1">
+    <row r="46" spans="1:33" ht="15.8" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -2709,7 +3179,7 @@
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
     </row>
-    <row r="47" spans="1:33" ht="15.75" customHeight="1">
+    <row r="47" spans="1:33" ht="15.8" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -2744,7 +3214,7 @@
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
     </row>
-    <row r="48" spans="1:33" ht="15.75" customHeight="1">
+    <row r="48" spans="1:33" ht="15.8" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -2779,7 +3249,7 @@
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
     </row>
-    <row r="49" spans="1:33" ht="15.75" customHeight="1">
+    <row r="49" spans="1:33" ht="15.8" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -2814,7 +3284,7 @@
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
     </row>
-    <row r="50" spans="1:33" ht="15.75" customHeight="1">
+    <row r="50" spans="1:33" ht="15.8" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -2849,7 +3319,7 @@
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
     </row>
-    <row r="51" spans="1:33" ht="15.75" customHeight="1">
+    <row r="51" spans="1:33" ht="15.8" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -2884,7 +3354,7 @@
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
     </row>
-    <row r="52" spans="1:33" ht="15.75" customHeight="1">
+    <row r="52" spans="1:33" ht="15.8" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -2919,7 +3389,7 @@
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
     </row>
-    <row r="53" spans="1:33" ht="15.75" customHeight="1">
+    <row r="53" spans="1:33" ht="15.8" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -2954,7 +3424,7 @@
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
     </row>
-    <row r="54" spans="1:33" ht="15.75" customHeight="1">
+    <row r="54" spans="1:33" ht="15.8" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -2989,7 +3459,7 @@
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
     </row>
-    <row r="55" spans="1:33" ht="15.75" customHeight="1">
+    <row r="55" spans="1:33" ht="15.8" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -3024,7 +3494,7 @@
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
     </row>
-    <row r="56" spans="1:33" ht="15.75" customHeight="1">
+    <row r="56" spans="1:33" ht="15.8" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -3059,7 +3529,7 @@
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
     </row>
-    <row r="57" spans="1:33" ht="15.75" customHeight="1">
+    <row r="57" spans="1:33" ht="15.8" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -3094,7 +3564,7 @@
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
     </row>
-    <row r="58" spans="1:33" ht="15.75" customHeight="1">
+    <row r="58" spans="1:33" ht="15.8" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -3129,7 +3599,7 @@
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
     </row>
-    <row r="59" spans="1:33" ht="15.75" customHeight="1">
+    <row r="59" spans="1:33" ht="15.8" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -3164,7 +3634,7 @@
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
     </row>
-    <row r="60" spans="1:33" ht="15.75" customHeight="1">
+    <row r="60" spans="1:33" ht="15.8" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -3199,7 +3669,7 @@
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
     </row>
-    <row r="61" spans="1:33" ht="15.75" customHeight="1">
+    <row r="61" spans="1:33" ht="15.8" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -3234,7 +3704,7 @@
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
     </row>
-    <row r="62" spans="1:33" ht="15.75" customHeight="1">
+    <row r="62" spans="1:33" ht="15.8" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -3269,7 +3739,7 @@
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
     </row>
-    <row r="63" spans="1:33" ht="15.75" customHeight="1">
+    <row r="63" spans="1:33" ht="15.8" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -3304,7 +3774,7 @@
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
     </row>
-    <row r="64" spans="1:33" ht="15.75" customHeight="1">
+    <row r="64" spans="1:33" ht="15.8" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -3339,7 +3809,7 @@
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
     </row>
-    <row r="65" spans="1:33" ht="15.75" customHeight="1">
+    <row r="65" spans="1:33" ht="15.8" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -3374,7 +3844,7 @@
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
     </row>
-    <row r="66" spans="1:33" ht="15.75" customHeight="1">
+    <row r="66" spans="1:33" ht="15.8" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -3409,7 +3879,7 @@
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
     </row>
-    <row r="67" spans="1:33" ht="15.75" customHeight="1">
+    <row r="67" spans="1:33" ht="15.8" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -3444,7 +3914,7 @@
       <c r="AF67" s="1"/>
       <c r="AG67" s="1"/>
     </row>
-    <row r="68" spans="1:33" ht="15.75" customHeight="1">
+    <row r="68" spans="1:33" ht="15.8" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -3479,7 +3949,7 @@
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
     </row>
-    <row r="69" spans="1:33" ht="15.75" customHeight="1">
+    <row r="69" spans="1:33" ht="15.8" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -3514,7 +3984,7 @@
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
     </row>
-    <row r="70" spans="1:33" ht="15.75" customHeight="1">
+    <row r="70" spans="1:33" ht="15.8" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -3549,7 +4019,7 @@
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
     </row>
-    <row r="71" spans="1:33" ht="15.75" customHeight="1">
+    <row r="71" spans="1:33" ht="15.8" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -3584,7 +4054,7 @@
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
     </row>
-    <row r="72" spans="1:33" ht="15.75" customHeight="1">
+    <row r="72" spans="1:33" ht="15.8" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -3619,7 +4089,7 @@
       <c r="AF72" s="1"/>
       <c r="AG72" s="1"/>
     </row>
-    <row r="73" spans="1:33" ht="15.75" customHeight="1">
+    <row r="73" spans="1:33" ht="15.8" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -3654,7 +4124,7 @@
       <c r="AF73" s="1"/>
       <c r="AG73" s="1"/>
     </row>
-    <row r="74" spans="1:33" ht="15.75" customHeight="1">
+    <row r="74" spans="1:33" ht="15.8" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -3689,7 +4159,7 @@
       <c r="AF74" s="1"/>
       <c r="AG74" s="1"/>
     </row>
-    <row r="75" spans="1:33" ht="15.75" customHeight="1">
+    <row r="75" spans="1:33" ht="15.8" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -3724,7 +4194,7 @@
       <c r="AF75" s="1"/>
       <c r="AG75" s="1"/>
     </row>
-    <row r="76" spans="1:33" ht="15.75" customHeight="1">
+    <row r="76" spans="1:33" ht="15.8" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -3759,7 +4229,7 @@
       <c r="AF76" s="1"/>
       <c r="AG76" s="1"/>
     </row>
-    <row r="77" spans="1:33" ht="15.75" customHeight="1">
+    <row r="77" spans="1:33" ht="15.8" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -3794,7 +4264,7 @@
       <c r="AF77" s="1"/>
       <c r="AG77" s="1"/>
     </row>
-    <row r="78" spans="1:33" ht="15.75" customHeight="1">
+    <row r="78" spans="1:33" ht="15.8" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -3829,7 +4299,7 @@
       <c r="AF78" s="1"/>
       <c r="AG78" s="1"/>
     </row>
-    <row r="79" spans="1:33" ht="15.75" customHeight="1">
+    <row r="79" spans="1:33" ht="15.8" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -3864,7 +4334,7 @@
       <c r="AF79" s="1"/>
       <c r="AG79" s="1"/>
     </row>
-    <row r="80" spans="1:33" ht="15.75" customHeight="1">
+    <row r="80" spans="1:33" ht="15.8" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -3899,7 +4369,7 @@
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
     </row>
-    <row r="81" spans="1:33" ht="15.75" customHeight="1">
+    <row r="81" spans="1:33" ht="15.8" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -3934,7 +4404,7 @@
       <c r="AF81" s="1"/>
       <c r="AG81" s="1"/>
     </row>
-    <row r="82" spans="1:33" ht="15.75" customHeight="1">
+    <row r="82" spans="1:33" ht="15.8" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -3969,7 +4439,7 @@
       <c r="AF82" s="1"/>
       <c r="AG82" s="1"/>
     </row>
-    <row r="83" spans="1:33" ht="15.75" customHeight="1">
+    <row r="83" spans="1:33" ht="15.8" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -4004,7 +4474,7 @@
       <c r="AF83" s="1"/>
       <c r="AG83" s="1"/>
     </row>
-    <row r="84" spans="1:33" ht="15.75" customHeight="1">
+    <row r="84" spans="1:33" ht="15.8" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -4039,7 +4509,7 @@
       <c r="AF84" s="1"/>
       <c r="AG84" s="1"/>
     </row>
-    <row r="85" spans="1:33" ht="15.75" customHeight="1">
+    <row r="85" spans="1:33" ht="15.8" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -4074,7 +4544,7 @@
       <c r="AF85" s="1"/>
       <c r="AG85" s="1"/>
     </row>
-    <row r="86" spans="1:33" ht="15.75" customHeight="1">
+    <row r="86" spans="1:33" ht="15.8" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -4109,7 +4579,7 @@
       <c r="AF86" s="1"/>
       <c r="AG86" s="1"/>
     </row>
-    <row r="87" spans="1:33" ht="15.75" customHeight="1">
+    <row r="87" spans="1:33" ht="15.8" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -4144,7 +4614,7 @@
       <c r="AF87" s="1"/>
       <c r="AG87" s="1"/>
     </row>
-    <row r="88" spans="1:33" ht="15.75" customHeight="1">
+    <row r="88" spans="1:33" ht="15.8" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -4179,7 +4649,7 @@
       <c r="AF88" s="1"/>
       <c r="AG88" s="1"/>
     </row>
-    <row r="89" spans="1:33" ht="15.75" customHeight="1">
+    <row r="89" spans="1:33" ht="15.8" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -4214,7 +4684,7 @@
       <c r="AF89" s="1"/>
       <c r="AG89" s="1"/>
     </row>
-    <row r="90" spans="1:33" ht="15.75" customHeight="1">
+    <row r="90" spans="1:33" ht="15.8" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -4249,7 +4719,7 @@
       <c r="AF90" s="1"/>
       <c r="AG90" s="1"/>
     </row>
-    <row r="91" spans="1:33" ht="15.75" customHeight="1">
+    <row r="91" spans="1:33" ht="15.8" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -4284,7 +4754,7 @@
       <c r="AF91" s="1"/>
       <c r="AG91" s="1"/>
     </row>
-    <row r="92" spans="1:33" ht="15.75" customHeight="1">
+    <row r="92" spans="1:33" ht="15.8" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -4319,7 +4789,7 @@
       <c r="AF92" s="1"/>
       <c r="AG92" s="1"/>
     </row>
-    <row r="93" spans="1:33" ht="15.75" customHeight="1">
+    <row r="93" spans="1:33" ht="15.8" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -4354,7 +4824,7 @@
       <c r="AF93" s="1"/>
       <c r="AG93" s="1"/>
     </row>
-    <row r="94" spans="1:33" ht="15.75" customHeight="1">
+    <row r="94" spans="1:33" ht="15.8" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -4389,7 +4859,7 @@
       <c r="AF94" s="1"/>
       <c r="AG94" s="1"/>
     </row>
-    <row r="95" spans="1:33" ht="15.75" customHeight="1">
+    <row r="95" spans="1:33" ht="15.8" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -4424,7 +4894,7 @@
       <c r="AF95" s="1"/>
       <c r="AG95" s="1"/>
     </row>
-    <row r="96" spans="1:33" ht="15.75" customHeight="1">
+    <row r="96" spans="1:33" ht="15.8" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -4459,7 +4929,7 @@
       <c r="AF96" s="1"/>
       <c r="AG96" s="1"/>
     </row>
-    <row r="97" spans="1:33" ht="15.75" customHeight="1">
+    <row r="97" spans="1:33" ht="15.8" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -4494,7 +4964,7 @@
       <c r="AF97" s="1"/>
       <c r="AG97" s="1"/>
     </row>
-    <row r="98" spans="1:33" ht="15.75" customHeight="1">
+    <row r="98" spans="1:33" ht="15.8" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -4529,7 +4999,7 @@
       <c r="AF98" s="1"/>
       <c r="AG98" s="1"/>
     </row>
-    <row r="99" spans="1:33" ht="15.75" customHeight="1">
+    <row r="99" spans="1:33" ht="15.8" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -4564,7 +5034,7 @@
       <c r="AF99" s="1"/>
       <c r="AG99" s="1"/>
     </row>
-    <row r="100" spans="1:33" ht="15.75" customHeight="1">
+    <row r="100" spans="1:33" ht="15.8" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -4599,7 +5069,7 @@
       <c r="AF100" s="1"/>
       <c r="AG100" s="1"/>
     </row>
-    <row r="101" spans="1:33" ht="15.75" customHeight="1">
+    <row r="101" spans="1:33" ht="15.8" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -4634,7 +5104,7 @@
       <c r="AF101" s="1"/>
       <c r="AG101" s="1"/>
     </row>
-    <row r="102" spans="1:33" ht="15.75" customHeight="1">
+    <row r="102" spans="1:33" ht="15.8" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -4669,7 +5139,7 @@
       <c r="AF102" s="1"/>
       <c r="AG102" s="1"/>
     </row>
-    <row r="103" spans="1:33" ht="15.75" customHeight="1">
+    <row r="103" spans="1:33" ht="15.8" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -4704,7 +5174,7 @@
       <c r="AF103" s="1"/>
       <c r="AG103" s="1"/>
     </row>
-    <row r="104" spans="1:33" ht="15.75" customHeight="1">
+    <row r="104" spans="1:33" ht="15.8" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -4739,7 +5209,7 @@
       <c r="AF104" s="1"/>
       <c r="AG104" s="1"/>
     </row>
-    <row r="105" spans="1:33" ht="15.75" customHeight="1">
+    <row r="105" spans="1:33" ht="15.8" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -4774,7 +5244,7 @@
       <c r="AF105" s="1"/>
       <c r="AG105" s="1"/>
     </row>
-    <row r="106" spans="1:33" ht="15.75" customHeight="1">
+    <row r="106" spans="1:33" ht="15.8" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -4809,7 +5279,7 @@
       <c r="AF106" s="1"/>
       <c r="AG106" s="1"/>
     </row>
-    <row r="107" spans="1:33" ht="15.75" customHeight="1">
+    <row r="107" spans="1:33" ht="15.8" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -4844,7 +5314,7 @@
       <c r="AF107" s="1"/>
       <c r="AG107" s="1"/>
     </row>
-    <row r="108" spans="1:33" ht="15.75" customHeight="1">
+    <row r="108" spans="1:33" ht="15.8" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -4879,7 +5349,7 @@
       <c r="AF108" s="1"/>
       <c r="AG108" s="1"/>
     </row>
-    <row r="109" spans="1:33" ht="15.75" customHeight="1">
+    <row r="109" spans="1:33" ht="15.8" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -4914,7 +5384,7 @@
       <c r="AF109" s="1"/>
       <c r="AG109" s="1"/>
     </row>
-    <row r="110" spans="1:33" ht="15.75" customHeight="1">
+    <row r="110" spans="1:33" ht="15.8" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -4949,7 +5419,7 @@
       <c r="AF110" s="1"/>
       <c r="AG110" s="1"/>
     </row>
-    <row r="111" spans="1:33" ht="15.75" customHeight="1">
+    <row r="111" spans="1:33" ht="15.8" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -4984,7 +5454,7 @@
       <c r="AF111" s="1"/>
       <c r="AG111" s="1"/>
     </row>
-    <row r="112" spans="1:33" ht="15.75" customHeight="1">
+    <row r="112" spans="1:33" ht="15.8" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -5019,7 +5489,7 @@
       <c r="AF112" s="1"/>
       <c r="AG112" s="1"/>
     </row>
-    <row r="113" spans="1:33" ht="15.75" customHeight="1">
+    <row r="113" spans="1:33" ht="15.8" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -5054,7 +5524,7 @@
       <c r="AF113" s="1"/>
       <c r="AG113" s="1"/>
     </row>
-    <row r="114" spans="1:33" ht="15.75" customHeight="1">
+    <row r="114" spans="1:33" ht="15.8" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -5089,7 +5559,7 @@
       <c r="AF114" s="1"/>
       <c r="AG114" s="1"/>
     </row>
-    <row r="115" spans="1:33" ht="15.75" customHeight="1">
+    <row r="115" spans="1:33" ht="15.8" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -5124,7 +5594,7 @@
       <c r="AF115" s="1"/>
       <c r="AG115" s="1"/>
     </row>
-    <row r="116" spans="1:33" ht="15.75" customHeight="1">
+    <row r="116" spans="1:33" ht="15.8" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -5159,7 +5629,7 @@
       <c r="AF116" s="1"/>
       <c r="AG116" s="1"/>
     </row>
-    <row r="117" spans="1:33" ht="15.75" customHeight="1">
+    <row r="117" spans="1:33" ht="15.8" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -5194,7 +5664,7 @@
       <c r="AF117" s="1"/>
       <c r="AG117" s="1"/>
     </row>
-    <row r="118" spans="1:33" ht="15.75" customHeight="1">
+    <row r="118" spans="1:33" ht="15.8" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -5229,7 +5699,7 @@
       <c r="AF118" s="1"/>
       <c r="AG118" s="1"/>
     </row>
-    <row r="119" spans="1:33" ht="15.75" customHeight="1">
+    <row r="119" spans="1:33" ht="15.8" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -5264,7 +5734,7 @@
       <c r="AF119" s="1"/>
       <c r="AG119" s="1"/>
     </row>
-    <row r="120" spans="1:33" ht="15.75" customHeight="1">
+    <row r="120" spans="1:33" ht="15.8" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -5299,7 +5769,7 @@
       <c r="AF120" s="1"/>
       <c r="AG120" s="1"/>
     </row>
-    <row r="121" spans="1:33" ht="15.75" customHeight="1">
+    <row r="121" spans="1:33" ht="15.8" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -5334,7 +5804,7 @@
       <c r="AF121" s="1"/>
       <c r="AG121" s="1"/>
     </row>
-    <row r="122" spans="1:33" ht="15.75" customHeight="1">
+    <row r="122" spans="1:33" ht="15.8" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -5369,7 +5839,7 @@
       <c r="AF122" s="1"/>
       <c r="AG122" s="1"/>
     </row>
-    <row r="123" spans="1:33" ht="15.75" customHeight="1">
+    <row r="123" spans="1:33" ht="15.8" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -5404,7 +5874,7 @@
       <c r="AF123" s="1"/>
       <c r="AG123" s="1"/>
     </row>
-    <row r="124" spans="1:33" ht="15.75" customHeight="1">
+    <row r="124" spans="1:33" ht="15.8" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -5439,7 +5909,7 @@
       <c r="AF124" s="1"/>
       <c r="AG124" s="1"/>
     </row>
-    <row r="125" spans="1:33" ht="15.75" customHeight="1">
+    <row r="125" spans="1:33" ht="15.8" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -5474,7 +5944,7 @@
       <c r="AF125" s="1"/>
       <c r="AG125" s="1"/>
     </row>
-    <row r="126" spans="1:33" ht="15.75" customHeight="1">
+    <row r="126" spans="1:33" ht="15.8" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -5509,7 +5979,7 @@
       <c r="AF126" s="1"/>
       <c r="AG126" s="1"/>
     </row>
-    <row r="127" spans="1:33" ht="15.75" customHeight="1">
+    <row r="127" spans="1:33" ht="15.8" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -5544,7 +6014,7 @@
       <c r="AF127" s="1"/>
       <c r="AG127" s="1"/>
     </row>
-    <row r="128" spans="1:33" ht="15.75" customHeight="1">
+    <row r="128" spans="1:33" ht="15.8" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -5579,7 +6049,7 @@
       <c r="AF128" s="1"/>
       <c r="AG128" s="1"/>
     </row>
-    <row r="129" spans="1:33" ht="15.75" customHeight="1">
+    <row r="129" spans="1:33" ht="15.8" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -5614,7 +6084,7 @@
       <c r="AF129" s="1"/>
       <c r="AG129" s="1"/>
     </row>
-    <row r="130" spans="1:33" ht="15.75" customHeight="1">
+    <row r="130" spans="1:33" ht="15.8" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -5649,7 +6119,7 @@
       <c r="AF130" s="1"/>
       <c r="AG130" s="1"/>
     </row>
-    <row r="131" spans="1:33" ht="15.75" customHeight="1">
+    <row r="131" spans="1:33" ht="15.8" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -5684,7 +6154,7 @@
       <c r="AF131" s="1"/>
       <c r="AG131" s="1"/>
     </row>
-    <row r="132" spans="1:33" ht="15.75" customHeight="1">
+    <row r="132" spans="1:33" ht="15.8" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -5719,7 +6189,7 @@
       <c r="AF132" s="1"/>
       <c r="AG132" s="1"/>
     </row>
-    <row r="133" spans="1:33" ht="15.75" customHeight="1">
+    <row r="133" spans="1:33" ht="15.8" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -5754,7 +6224,7 @@
       <c r="AF133" s="1"/>
       <c r="AG133" s="1"/>
     </row>
-    <row r="134" spans="1:33" ht="15.75" customHeight="1">
+    <row r="134" spans="1:33" ht="15.8" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -5789,7 +6259,7 @@
       <c r="AF134" s="1"/>
       <c r="AG134" s="1"/>
     </row>
-    <row r="135" spans="1:33" ht="15.75" customHeight="1">
+    <row r="135" spans="1:33" ht="15.8" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -5824,7 +6294,7 @@
       <c r="AF135" s="1"/>
       <c r="AG135" s="1"/>
     </row>
-    <row r="136" spans="1:33" ht="15.75" customHeight="1">
+    <row r="136" spans="1:33" ht="15.8" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -5859,7 +6329,7 @@
       <c r="AF136" s="1"/>
       <c r="AG136" s="1"/>
     </row>
-    <row r="137" spans="1:33" ht="15.75" customHeight="1">
+    <row r="137" spans="1:33" ht="15.8" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -5894,7 +6364,7 @@
       <c r="AF137" s="1"/>
       <c r="AG137" s="1"/>
     </row>
-    <row r="138" spans="1:33" ht="15.75" customHeight="1">
+    <row r="138" spans="1:33" ht="15.8" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -5929,7 +6399,7 @@
       <c r="AF138" s="1"/>
       <c r="AG138" s="1"/>
     </row>
-    <row r="139" spans="1:33" ht="15.75" customHeight="1">
+    <row r="139" spans="1:33" ht="15.8" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -5964,7 +6434,7 @@
       <c r="AF139" s="1"/>
       <c r="AG139" s="1"/>
     </row>
-    <row r="140" spans="1:33" ht="15.75" customHeight="1">
+    <row r="140" spans="1:33" ht="15.8" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -5999,7 +6469,7 @@
       <c r="AF140" s="1"/>
       <c r="AG140" s="1"/>
     </row>
-    <row r="141" spans="1:33" ht="15.75" customHeight="1">
+    <row r="141" spans="1:33" ht="15.8" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -6034,7 +6504,7 @@
       <c r="AF141" s="1"/>
       <c r="AG141" s="1"/>
     </row>
-    <row r="142" spans="1:33" ht="15.75" customHeight="1">
+    <row r="142" spans="1:33" ht="15.8" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -6069,7 +6539,7 @@
       <c r="AF142" s="1"/>
       <c r="AG142" s="1"/>
     </row>
-    <row r="143" spans="1:33" ht="15.75" customHeight="1">
+    <row r="143" spans="1:33" ht="15.8" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -6104,7 +6574,7 @@
       <c r="AF143" s="1"/>
       <c r="AG143" s="1"/>
     </row>
-    <row r="144" spans="1:33" ht="15.75" customHeight="1">
+    <row r="144" spans="1:33" ht="15.8" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -6139,7 +6609,7 @@
       <c r="AF144" s="1"/>
       <c r="AG144" s="1"/>
     </row>
-    <row r="145" spans="1:33" ht="15.75" customHeight="1">
+    <row r="145" spans="1:33" ht="15.8" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -6174,7 +6644,7 @@
       <c r="AF145" s="1"/>
       <c r="AG145" s="1"/>
     </row>
-    <row r="146" spans="1:33" ht="15.75" customHeight="1">
+    <row r="146" spans="1:33" ht="15.8" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -6209,7 +6679,7 @@
       <c r="AF146" s="1"/>
       <c r="AG146" s="1"/>
     </row>
-    <row r="147" spans="1:33" ht="15.75" customHeight="1">
+    <row r="147" spans="1:33" ht="15.8" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -6244,7 +6714,7 @@
       <c r="AF147" s="1"/>
       <c r="AG147" s="1"/>
     </row>
-    <row r="148" spans="1:33" ht="15.75" customHeight="1">
+    <row r="148" spans="1:33" ht="15.8" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -6279,7 +6749,7 @@
       <c r="AF148" s="1"/>
       <c r="AG148" s="1"/>
     </row>
-    <row r="149" spans="1:33" ht="15.75" customHeight="1">
+    <row r="149" spans="1:33" ht="15.8" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -6314,7 +6784,7 @@
       <c r="AF149" s="1"/>
       <c r="AG149" s="1"/>
     </row>
-    <row r="150" spans="1:33" ht="15.75" customHeight="1">
+    <row r="150" spans="1:33" ht="15.8" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -6349,7 +6819,7 @@
       <c r="AF150" s="1"/>
       <c r="AG150" s="1"/>
     </row>
-    <row r="151" spans="1:33" ht="15.75" customHeight="1">
+    <row r="151" spans="1:33" ht="15.8" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -6384,7 +6854,7 @@
       <c r="AF151" s="1"/>
       <c r="AG151" s="1"/>
     </row>
-    <row r="152" spans="1:33" ht="15.75" customHeight="1">
+    <row r="152" spans="1:33" ht="15.8" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -6419,7 +6889,7 @@
       <c r="AF152" s="1"/>
       <c r="AG152" s="1"/>
     </row>
-    <row r="153" spans="1:33" ht="15.75" customHeight="1">
+    <row r="153" spans="1:33" ht="15.8" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -6454,7 +6924,7 @@
       <c r="AF153" s="1"/>
       <c r="AG153" s="1"/>
     </row>
-    <row r="154" spans="1:33" ht="15.75" customHeight="1">
+    <row r="154" spans="1:33" ht="15.8" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -6489,7 +6959,7 @@
       <c r="AF154" s="1"/>
       <c r="AG154" s="1"/>
     </row>
-    <row r="155" spans="1:33" ht="15.75" customHeight="1">
+    <row r="155" spans="1:33" ht="15.8" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -6524,7 +6994,7 @@
       <c r="AF155" s="1"/>
       <c r="AG155" s="1"/>
     </row>
-    <row r="156" spans="1:33" ht="15.75" customHeight="1">
+    <row r="156" spans="1:33" ht="15.8" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -6559,7 +7029,7 @@
       <c r="AF156" s="1"/>
       <c r="AG156" s="1"/>
     </row>
-    <row r="157" spans="1:33" ht="15.75" customHeight="1">
+    <row r="157" spans="1:33" ht="15.8" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -6594,7 +7064,7 @@
       <c r="AF157" s="1"/>
       <c r="AG157" s="1"/>
     </row>
-    <row r="158" spans="1:33" ht="15.75" customHeight="1">
+    <row r="158" spans="1:33" ht="15.8" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -6629,7 +7099,7 @@
       <c r="AF158" s="1"/>
       <c r="AG158" s="1"/>
     </row>
-    <row r="159" spans="1:33" ht="15.75" customHeight="1">
+    <row r="159" spans="1:33" ht="15.8" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -6664,7 +7134,7 @@
       <c r="AF159" s="1"/>
       <c r="AG159" s="1"/>
     </row>
-    <row r="160" spans="1:33" ht="15.75" customHeight="1">
+    <row r="160" spans="1:33" ht="15.8" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -6699,7 +7169,7 @@
       <c r="AF160" s="1"/>
       <c r="AG160" s="1"/>
     </row>
-    <row r="161" spans="1:33" ht="15.75" customHeight="1">
+    <row r="161" spans="1:33" ht="15.8" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -6734,7 +7204,7 @@
       <c r="AF161" s="1"/>
       <c r="AG161" s="1"/>
     </row>
-    <row r="162" spans="1:33" ht="15.75" customHeight="1">
+    <row r="162" spans="1:33" ht="15.8" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -6769,7 +7239,7 @@
       <c r="AF162" s="1"/>
       <c r="AG162" s="1"/>
     </row>
-    <row r="163" spans="1:33" ht="15.75" customHeight="1">
+    <row r="163" spans="1:33" ht="15.8" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -6804,7 +7274,7 @@
       <c r="AF163" s="1"/>
       <c r="AG163" s="1"/>
     </row>
-    <row r="164" spans="1:33" ht="15.75" customHeight="1">
+    <row r="164" spans="1:33" ht="15.8" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -6839,7 +7309,7 @@
       <c r="AF164" s="1"/>
       <c r="AG164" s="1"/>
     </row>
-    <row r="165" spans="1:33" ht="15.75" customHeight="1">
+    <row r="165" spans="1:33" ht="15.8" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -6874,7 +7344,7 @@
       <c r="AF165" s="1"/>
       <c r="AG165" s="1"/>
     </row>
-    <row r="166" spans="1:33" ht="15.75" customHeight="1">
+    <row r="166" spans="1:33" ht="15.8" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -6909,7 +7379,7 @@
       <c r="AF166" s="1"/>
       <c r="AG166" s="1"/>
     </row>
-    <row r="167" spans="1:33" ht="15.75" customHeight="1">
+    <row r="167" spans="1:33" ht="15.8" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -6944,7 +7414,7 @@
       <c r="AF167" s="1"/>
       <c r="AG167" s="1"/>
     </row>
-    <row r="168" spans="1:33" ht="15.75" customHeight="1">
+    <row r="168" spans="1:33" ht="15.8" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -6979,7 +7449,7 @@
       <c r="AF168" s="1"/>
       <c r="AG168" s="1"/>
     </row>
-    <row r="169" spans="1:33" ht="15.75" customHeight="1">
+    <row r="169" spans="1:33" ht="15.8" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -7014,7 +7484,7 @@
       <c r="AF169" s="1"/>
       <c r="AG169" s="1"/>
     </row>
-    <row r="170" spans="1:33" ht="15.75" customHeight="1">
+    <row r="170" spans="1:33" ht="15.8" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -7049,7 +7519,7 @@
       <c r="AF170" s="1"/>
       <c r="AG170" s="1"/>
     </row>
-    <row r="171" spans="1:33" ht="15.75" customHeight="1">
+    <row r="171" spans="1:33" ht="15.8" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -7084,7 +7554,7 @@
       <c r="AF171" s="1"/>
       <c r="AG171" s="1"/>
     </row>
-    <row r="172" spans="1:33" ht="15.75" customHeight="1">
+    <row r="172" spans="1:33" ht="15.8" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -7119,7 +7589,7 @@
       <c r="AF172" s="1"/>
       <c r="AG172" s="1"/>
     </row>
-    <row r="173" spans="1:33" ht="15.75" customHeight="1">
+    <row r="173" spans="1:33" ht="15.8" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -7154,7 +7624,7 @@
       <c r="AF173" s="1"/>
       <c r="AG173" s="1"/>
     </row>
-    <row r="174" spans="1:33" ht="15.75" customHeight="1">
+    <row r="174" spans="1:33" ht="15.8" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -7189,7 +7659,7 @@
       <c r="AF174" s="1"/>
       <c r="AG174" s="1"/>
     </row>
-    <row r="175" spans="1:33" ht="15.75" customHeight="1">
+    <row r="175" spans="1:33" ht="15.8" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -7224,7 +7694,7 @@
       <c r="AF175" s="1"/>
       <c r="AG175" s="1"/>
     </row>
-    <row r="176" spans="1:33" ht="15.75" customHeight="1">
+    <row r="176" spans="1:33" ht="15.8" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -7259,7 +7729,7 @@
       <c r="AF176" s="1"/>
       <c r="AG176" s="1"/>
     </row>
-    <row r="177" spans="1:33" ht="15.75" customHeight="1">
+    <row r="177" spans="1:33" ht="15.8" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -7294,7 +7764,7 @@
       <c r="AF177" s="1"/>
       <c r="AG177" s="1"/>
     </row>
-    <row r="178" spans="1:33" ht="15.75" customHeight="1">
+    <row r="178" spans="1:33" ht="15.8" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -7329,7 +7799,7 @@
       <c r="AF178" s="1"/>
       <c r="AG178" s="1"/>
     </row>
-    <row r="179" spans="1:33" ht="15.75" customHeight="1">
+    <row r="179" spans="1:33" ht="15.8" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -7364,7 +7834,7 @@
       <c r="AF179" s="1"/>
       <c r="AG179" s="1"/>
     </row>
-    <row r="180" spans="1:33" ht="15.75" customHeight="1">
+    <row r="180" spans="1:33" ht="15.8" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -7399,7 +7869,7 @@
       <c r="AF180" s="1"/>
       <c r="AG180" s="1"/>
     </row>
-    <row r="181" spans="1:33" ht="15.75" customHeight="1">
+    <row r="181" spans="1:33" ht="15.8" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -7434,7 +7904,7 @@
       <c r="AF181" s="1"/>
       <c r="AG181" s="1"/>
     </row>
-    <row r="182" spans="1:33" ht="15.75" customHeight="1">
+    <row r="182" spans="1:33" ht="15.8" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -7469,7 +7939,7 @@
       <c r="AF182" s="1"/>
       <c r="AG182" s="1"/>
     </row>
-    <row r="183" spans="1:33" ht="15.75" customHeight="1">
+    <row r="183" spans="1:33" ht="15.8" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -7504,7 +7974,7 @@
       <c r="AF183" s="1"/>
       <c r="AG183" s="1"/>
     </row>
-    <row r="184" spans="1:33" ht="15.75" customHeight="1">
+    <row r="184" spans="1:33" ht="15.8" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -7539,7 +8009,7 @@
       <c r="AF184" s="1"/>
       <c r="AG184" s="1"/>
     </row>
-    <row r="185" spans="1:33" ht="15.75" customHeight="1">
+    <row r="185" spans="1:33" ht="15.8" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -7574,7 +8044,7 @@
       <c r="AF185" s="1"/>
       <c r="AG185" s="1"/>
     </row>
-    <row r="186" spans="1:33" ht="15.75" customHeight="1">
+    <row r="186" spans="1:33" ht="15.8" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -7609,7 +8079,7 @@
       <c r="AF186" s="1"/>
       <c r="AG186" s="1"/>
     </row>
-    <row r="187" spans="1:33" ht="15.75" customHeight="1">
+    <row r="187" spans="1:33" ht="15.8" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -7644,7 +8114,7 @@
       <c r="AF187" s="1"/>
       <c r="AG187" s="1"/>
     </row>
-    <row r="188" spans="1:33" ht="15.75" customHeight="1">
+    <row r="188" spans="1:33" ht="15.8" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -7679,7 +8149,7 @@
       <c r="AF188" s="1"/>
       <c r="AG188" s="1"/>
     </row>
-    <row r="189" spans="1:33" ht="15.75" customHeight="1">
+    <row r="189" spans="1:33" ht="15.8" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -7714,7 +8184,7 @@
       <c r="AF189" s="1"/>
       <c r="AG189" s="1"/>
     </row>
-    <row r="190" spans="1:33" ht="15.75" customHeight="1">
+    <row r="190" spans="1:33" ht="15.8" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -7749,7 +8219,7 @@
       <c r="AF190" s="1"/>
       <c r="AG190" s="1"/>
     </row>
-    <row r="191" spans="1:33" ht="15.75" customHeight="1">
+    <row r="191" spans="1:33" ht="15.8" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -7784,7 +8254,7 @@
       <c r="AF191" s="1"/>
       <c r="AG191" s="1"/>
     </row>
-    <row r="192" spans="1:33" ht="15.75" customHeight="1">
+    <row r="192" spans="1:33" ht="15.8" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -7819,7 +8289,7 @@
       <c r="AF192" s="1"/>
       <c r="AG192" s="1"/>
     </row>
-    <row r="193" spans="1:33" ht="15.75" customHeight="1">
+    <row r="193" spans="1:33" ht="15.8" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -7854,7 +8324,7 @@
       <c r="AF193" s="1"/>
       <c r="AG193" s="1"/>
     </row>
-    <row r="194" spans="1:33" ht="15.75" customHeight="1">
+    <row r="194" spans="1:33" ht="15.8" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -7889,7 +8359,7 @@
       <c r="AF194" s="1"/>
       <c r="AG194" s="1"/>
     </row>
-    <row r="195" spans="1:33" ht="15.75" customHeight="1">
+    <row r="195" spans="1:33" ht="15.8" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -7924,7 +8394,7 @@
       <c r="AF195" s="1"/>
       <c r="AG195" s="1"/>
     </row>
-    <row r="196" spans="1:33" ht="15.75" customHeight="1">
+    <row r="196" spans="1:33" ht="15.8" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -7959,7 +8429,7 @@
       <c r="AF196" s="1"/>
       <c r="AG196" s="1"/>
     </row>
-    <row r="197" spans="1:33" ht="15.75" customHeight="1">
+    <row r="197" spans="1:33" ht="15.8" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -7994,7 +8464,7 @@
       <c r="AF197" s="1"/>
       <c r="AG197" s="1"/>
     </row>
-    <row r="198" spans="1:33" ht="15.75" customHeight="1">
+    <row r="198" spans="1:33" ht="15.8" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -8029,7 +8499,7 @@
       <c r="AF198" s="1"/>
       <c r="AG198" s="1"/>
     </row>
-    <row r="199" spans="1:33" ht="15.75" customHeight="1">
+    <row r="199" spans="1:33" ht="15.8" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -8064,7 +8534,7 @@
       <c r="AF199" s="1"/>
       <c r="AG199" s="1"/>
     </row>
-    <row r="200" spans="1:33" ht="15.75" customHeight="1">
+    <row r="200" spans="1:33" ht="15.8" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -8099,7 +8569,7 @@
       <c r="AF200" s="1"/>
       <c r="AG200" s="1"/>
     </row>
-    <row r="201" spans="1:33" ht="15.75" customHeight="1">
+    <row r="201" spans="1:33" ht="15.8" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1"/>
@@ -8134,7 +8604,7 @@
       <c r="AF201" s="1"/>
       <c r="AG201" s="1"/>
     </row>
-    <row r="202" spans="1:33" ht="15.75" customHeight="1">
+    <row r="202" spans="1:33" ht="15.8" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1"/>
@@ -8169,7 +8639,7 @@
       <c r="AF202" s="1"/>
       <c r="AG202" s="1"/>
     </row>
-    <row r="203" spans="1:33" ht="15.75" customHeight="1">
+    <row r="203" spans="1:33" ht="15.8" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1"/>
@@ -8204,7 +8674,7 @@
       <c r="AF203" s="1"/>
       <c r="AG203" s="1"/>
     </row>
-    <row r="204" spans="1:33" ht="15.75" customHeight="1">
+    <row r="204" spans="1:33" ht="15.8" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1"/>
@@ -8239,7 +8709,7 @@
       <c r="AF204" s="1"/>
       <c r="AG204" s="1"/>
     </row>
-    <row r="205" spans="1:33" ht="15.75" customHeight="1">
+    <row r="205" spans="1:33" ht="15.8" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1"/>
@@ -8274,7 +8744,7 @@
       <c r="AF205" s="1"/>
       <c r="AG205" s="1"/>
     </row>
-    <row r="206" spans="1:33" ht="15.75" customHeight="1">
+    <row r="206" spans="1:33" ht="15.8" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1"/>
@@ -8309,7 +8779,7 @@
       <c r="AF206" s="1"/>
       <c r="AG206" s="1"/>
     </row>
-    <row r="207" spans="1:33" ht="15.75" customHeight="1">
+    <row r="207" spans="1:33" ht="15.8" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="1"/>
@@ -8344,7 +8814,7 @@
       <c r="AF207" s="1"/>
       <c r="AG207" s="1"/>
     </row>
-    <row r="208" spans="1:33" ht="15.75" customHeight="1">
+    <row r="208" spans="1:33" ht="15.8" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1"/>
@@ -8379,7 +8849,7 @@
       <c r="AF208" s="1"/>
       <c r="AG208" s="1"/>
     </row>
-    <row r="209" spans="1:33" ht="15.75" customHeight="1">
+    <row r="209" spans="1:33" ht="15.8" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1"/>
@@ -8414,7 +8884,7 @@
       <c r="AF209" s="1"/>
       <c r="AG209" s="1"/>
     </row>
-    <row r="210" spans="1:33" ht="15.75" customHeight="1">
+    <row r="210" spans="1:33" ht="15.8" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1"/>
@@ -8449,7 +8919,7 @@
       <c r="AF210" s="1"/>
       <c r="AG210" s="1"/>
     </row>
-    <row r="211" spans="1:33" ht="15.75" customHeight="1">
+    <row r="211" spans="1:33" ht="15.8" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1"/>
@@ -8484,7 +8954,7 @@
       <c r="AF211" s="1"/>
       <c r="AG211" s="1"/>
     </row>
-    <row r="212" spans="1:33" ht="15.75" customHeight="1">
+    <row r="212" spans="1:33" ht="15.8" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1"/>
@@ -8519,7 +8989,7 @@
       <c r="AF212" s="1"/>
       <c r="AG212" s="1"/>
     </row>
-    <row r="213" spans="1:33" ht="15.75" customHeight="1">
+    <row r="213" spans="1:33" ht="15.8" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1"/>
@@ -8554,7 +9024,7 @@
       <c r="AF213" s="1"/>
       <c r="AG213" s="1"/>
     </row>
-    <row r="214" spans="1:33" ht="15.75" customHeight="1">
+    <row r="214" spans="1:33" ht="15.8" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="1"/>
@@ -8589,7 +9059,7 @@
       <c r="AF214" s="1"/>
       <c r="AG214" s="1"/>
     </row>
-    <row r="215" spans="1:33" ht="15.75" customHeight="1">
+    <row r="215" spans="1:33" ht="15.8" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1"/>
@@ -8624,7 +9094,7 @@
       <c r="AF215" s="1"/>
       <c r="AG215" s="1"/>
     </row>
-    <row r="216" spans="1:33" ht="15.75" customHeight="1">
+    <row r="216" spans="1:33" ht="15.8" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1"/>
@@ -8659,7 +9129,7 @@
       <c r="AF216" s="1"/>
       <c r="AG216" s="1"/>
     </row>
-    <row r="217" spans="1:33" ht="15.75" customHeight="1">
+    <row r="217" spans="1:33" ht="15.8" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1"/>
@@ -8694,7 +9164,7 @@
       <c r="AF217" s="1"/>
       <c r="AG217" s="1"/>
     </row>
-    <row r="218" spans="1:33" ht="15.75" customHeight="1">
+    <row r="218" spans="1:33" ht="15.8" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1"/>
@@ -8729,7 +9199,7 @@
       <c r="AF218" s="1"/>
       <c r="AG218" s="1"/>
     </row>
-    <row r="219" spans="1:33" ht="15.75" customHeight="1">
+    <row r="219" spans="1:33" ht="15.8" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1"/>
@@ -8764,7 +9234,7 @@
       <c r="AF219" s="1"/>
       <c r="AG219" s="1"/>
     </row>
-    <row r="220" spans="1:33" ht="15.75" customHeight="1">
+    <row r="220" spans="1:33" ht="15.8" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1"/>
@@ -8799,7 +9269,7 @@
       <c r="AF220" s="1"/>
       <c r="AG220" s="1"/>
     </row>
-    <row r="221" spans="1:33" ht="15.75" customHeight="1">
+    <row r="221" spans="1:33" ht="15.8" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="1"/>
@@ -8834,7 +9304,7 @@
       <c r="AF221" s="1"/>
       <c r="AG221" s="1"/>
     </row>
-    <row r="222" spans="1:33" ht="15.75" customHeight="1">
+    <row r="222" spans="1:33" ht="15.8" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1"/>
@@ -8869,7 +9339,7 @@
       <c r="AF222" s="1"/>
       <c r="AG222" s="1"/>
     </row>
-    <row r="223" spans="1:33" ht="15.75" customHeight="1">
+    <row r="223" spans="1:33" ht="15.8" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1"/>
@@ -8904,7 +9374,7 @@
       <c r="AF223" s="1"/>
       <c r="AG223" s="1"/>
     </row>
-    <row r="224" spans="1:33" ht="15.75" customHeight="1">
+    <row r="224" spans="1:33" ht="15.8" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1"/>
@@ -8939,7 +9409,7 @@
       <c r="AF224" s="1"/>
       <c r="AG224" s="1"/>
     </row>
-    <row r="225" spans="1:33" ht="15.75" customHeight="1">
+    <row r="225" spans="1:33" ht="15.8" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1"/>
@@ -8974,2027 +9444,1841 @@
       <c r="AF225" s="1"/>
       <c r="AG225" s="1"/>
     </row>
-    <row r="226" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A226" s="1"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
-      <c r="K226" s="2"/>
-      <c r="L226" s="1"/>
-      <c r="M226" s="1"/>
-      <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
-      <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
-      <c r="R226" s="1"/>
-      <c r="S226" s="1"/>
-      <c r="T226" s="1"/>
-      <c r="U226" s="1"/>
-      <c r="V226" s="1"/>
-      <c r="W226" s="1"/>
-      <c r="X226" s="1"/>
-      <c r="Y226" s="1"/>
-      <c r="Z226" s="1"/>
-      <c r="AA226" s="1"/>
-      <c r="AB226" s="1"/>
-      <c r="AC226" s="1"/>
-      <c r="AD226" s="1"/>
-      <c r="AE226" s="1"/>
-      <c r="AF226" s="1"/>
-      <c r="AG226" s="1"/>
-    </row>
-    <row r="227" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A227" s="1"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="1"/>
-      <c r="M227" s="1"/>
-      <c r="N227" s="1"/>
-      <c r="O227" s="1"/>
-      <c r="P227" s="1"/>
-      <c r="Q227" s="1"/>
-      <c r="R227" s="1"/>
-      <c r="S227" s="1"/>
-      <c r="T227" s="1"/>
-      <c r="U227" s="1"/>
-      <c r="V227" s="1"/>
-      <c r="W227" s="1"/>
-      <c r="X227" s="1"/>
-      <c r="Y227" s="1"/>
-      <c r="Z227" s="1"/>
-      <c r="AA227" s="1"/>
-      <c r="AB227" s="1"/>
-      <c r="AC227" s="1"/>
-      <c r="AD227" s="1"/>
-      <c r="AE227" s="1"/>
-      <c r="AF227" s="1"/>
-      <c r="AG227" s="1"/>
-    </row>
-    <row r="228" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A228" s="1"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
-      <c r="L228" s="1"/>
-      <c r="M228" s="1"/>
-      <c r="N228" s="1"/>
-      <c r="O228" s="1"/>
-      <c r="P228" s="1"/>
-      <c r="Q228" s="1"/>
-      <c r="R228" s="1"/>
-      <c r="S228" s="1"/>
-      <c r="T228" s="1"/>
-      <c r="U228" s="1"/>
-      <c r="V228" s="1"/>
-      <c r="W228" s="1"/>
-      <c r="X228" s="1"/>
-      <c r="Y228" s="1"/>
-      <c r="Z228" s="1"/>
-      <c r="AA228" s="1"/>
-      <c r="AB228" s="1"/>
-      <c r="AC228" s="1"/>
-      <c r="AD228" s="1"/>
-      <c r="AE228" s="1"/>
-      <c r="AF228" s="1"/>
-      <c r="AG228" s="1"/>
-    </row>
-    <row r="229" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A229" s="1"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="K229" s="2"/>
-      <c r="L229" s="1"/>
-      <c r="M229" s="1"/>
-      <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
-      <c r="P229" s="1"/>
-      <c r="Q229" s="1"/>
-      <c r="R229" s="1"/>
-      <c r="S229" s="1"/>
-      <c r="T229" s="1"/>
-      <c r="U229" s="1"/>
-      <c r="V229" s="1"/>
-      <c r="W229" s="1"/>
-      <c r="X229" s="1"/>
-      <c r="Y229" s="1"/>
-      <c r="Z229" s="1"/>
-      <c r="AA229" s="1"/>
-      <c r="AB229" s="1"/>
-      <c r="AC229" s="1"/>
-      <c r="AD229" s="1"/>
-      <c r="AE229" s="1"/>
-      <c r="AF229" s="1"/>
-      <c r="AG229" s="1"/>
-    </row>
-    <row r="230" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A230" s="1"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="1"/>
-      <c r="M230" s="1"/>
-      <c r="N230" s="1"/>
-      <c r="O230" s="1"/>
-      <c r="P230" s="1"/>
-      <c r="Q230" s="1"/>
-      <c r="R230" s="1"/>
-      <c r="S230" s="1"/>
-      <c r="T230" s="1"/>
-      <c r="U230" s="1"/>
-      <c r="V230" s="1"/>
-      <c r="W230" s="1"/>
-      <c r="X230" s="1"/>
-      <c r="Y230" s="1"/>
-      <c r="Z230" s="1"/>
-      <c r="AA230" s="1"/>
-      <c r="AB230" s="1"/>
-      <c r="AC230" s="1"/>
-      <c r="AD230" s="1"/>
-      <c r="AE230" s="1"/>
-      <c r="AF230" s="1"/>
-      <c r="AG230" s="1"/>
-    </row>
-    <row r="231" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A231" s="1"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="1"/>
-      <c r="M231" s="1"/>
-      <c r="N231" s="1"/>
-      <c r="O231" s="1"/>
-      <c r="P231" s="1"/>
-      <c r="Q231" s="1"/>
-      <c r="R231" s="1"/>
-      <c r="S231" s="1"/>
-      <c r="T231" s="1"/>
-      <c r="U231" s="1"/>
-      <c r="V231" s="1"/>
-      <c r="W231" s="1"/>
-      <c r="X231" s="1"/>
-      <c r="Y231" s="1"/>
-      <c r="Z231" s="1"/>
-      <c r="AA231" s="1"/>
-      <c r="AB231" s="1"/>
-      <c r="AC231" s="1"/>
-      <c r="AD231" s="1"/>
-      <c r="AE231" s="1"/>
-      <c r="AF231" s="1"/>
-      <c r="AG231" s="1"/>
-    </row>
-    <row r="232" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="233" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="234" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="235" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="236" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="237" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="238" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="239" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="240" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="226" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="227" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="228" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="229" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="230" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="231" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="232" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="233" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="234" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="235" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="236" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="237" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="238" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="239" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="240" spans="1:33" ht="15.8" customHeight="1"/>
+    <row r="241" ht="15.8" customHeight="1"/>
+    <row r="242" ht="15.8" customHeight="1"/>
+    <row r="243" ht="15.8" customHeight="1"/>
+    <row r="244" ht="15.8" customHeight="1"/>
+    <row r="245" ht="15.8" customHeight="1"/>
+    <row r="246" ht="15.8" customHeight="1"/>
+    <row r="247" ht="15.8" customHeight="1"/>
+    <row r="248" ht="15.8" customHeight="1"/>
+    <row r="249" ht="15.8" customHeight="1"/>
+    <row r="250" ht="15.8" customHeight="1"/>
+    <row r="251" ht="15.8" customHeight="1"/>
+    <row r="252" ht="15.8" customHeight="1"/>
+    <row r="253" ht="15.8" customHeight="1"/>
+    <row r="254" ht="15.8" customHeight="1"/>
+    <row r="255" ht="15.8" customHeight="1"/>
+    <row r="256" ht="15.8" customHeight="1"/>
+    <row r="257" ht="15.8" customHeight="1"/>
+    <row r="258" ht="15.8" customHeight="1"/>
+    <row r="259" ht="15.8" customHeight="1"/>
+    <row r="260" ht="15.8" customHeight="1"/>
+    <row r="261" ht="15.8" customHeight="1"/>
+    <row r="262" ht="15.8" customHeight="1"/>
+    <row r="263" ht="15.8" customHeight="1"/>
+    <row r="264" ht="15.8" customHeight="1"/>
+    <row r="265" ht="15.8" customHeight="1"/>
+    <row r="266" ht="15.8" customHeight="1"/>
+    <row r="267" ht="15.8" customHeight="1"/>
+    <row r="268" ht="15.8" customHeight="1"/>
+    <row r="269" ht="15.8" customHeight="1"/>
+    <row r="270" ht="15.8" customHeight="1"/>
+    <row r="271" ht="15.8" customHeight="1"/>
+    <row r="272" ht="15.8" customHeight="1"/>
+    <row r="273" ht="15.8" customHeight="1"/>
+    <row r="274" ht="15.8" customHeight="1"/>
+    <row r="275" ht="15.8" customHeight="1"/>
+    <row r="276" ht="15.8" customHeight="1"/>
+    <row r="277" ht="15.8" customHeight="1"/>
+    <row r="278" ht="15.8" customHeight="1"/>
+    <row r="279" ht="15.8" customHeight="1"/>
+    <row r="280" ht="15.8" customHeight="1"/>
+    <row r="281" ht="15.8" customHeight="1"/>
+    <row r="282" ht="15.8" customHeight="1"/>
+    <row r="283" ht="15.8" customHeight="1"/>
+    <row r="284" ht="15.8" customHeight="1"/>
+    <row r="285" ht="15.8" customHeight="1"/>
+    <row r="286" ht="15.8" customHeight="1"/>
+    <row r="287" ht="15.8" customHeight="1"/>
+    <row r="288" ht="15.8" customHeight="1"/>
+    <row r="289" ht="15.8" customHeight="1"/>
+    <row r="290" ht="15.8" customHeight="1"/>
+    <row r="291" ht="15.8" customHeight="1"/>
+    <row r="292" ht="15.8" customHeight="1"/>
+    <row r="293" ht="15.8" customHeight="1"/>
+    <row r="294" ht="15.8" customHeight="1"/>
+    <row r="295" ht="15.8" customHeight="1"/>
+    <row r="296" ht="15.8" customHeight="1"/>
+    <row r="297" ht="15.8" customHeight="1"/>
+    <row r="298" ht="15.8" customHeight="1"/>
+    <row r="299" ht="15.8" customHeight="1"/>
+    <row r="300" ht="15.8" customHeight="1"/>
+    <row r="301" ht="15.8" customHeight="1"/>
+    <row r="302" ht="15.8" customHeight="1"/>
+    <row r="303" ht="15.8" customHeight="1"/>
+    <row r="304" ht="15.8" customHeight="1"/>
+    <row r="305" ht="15.8" customHeight="1"/>
+    <row r="306" ht="15.8" customHeight="1"/>
+    <row r="307" ht="15.8" customHeight="1"/>
+    <row r="308" ht="15.8" customHeight="1"/>
+    <row r="309" ht="15.8" customHeight="1"/>
+    <row r="310" ht="15.8" customHeight="1"/>
+    <row r="311" ht="15.8" customHeight="1"/>
+    <row r="312" ht="15.8" customHeight="1"/>
+    <row r="313" ht="15.8" customHeight="1"/>
+    <row r="314" ht="15.8" customHeight="1"/>
+    <row r="315" ht="15.8" customHeight="1"/>
+    <row r="316" ht="15.8" customHeight="1"/>
+    <row r="317" ht="15.8" customHeight="1"/>
+    <row r="318" ht="15.8" customHeight="1"/>
+    <row r="319" ht="15.8" customHeight="1"/>
+    <row r="320" ht="15.8" customHeight="1"/>
+    <row r="321" ht="15.8" customHeight="1"/>
+    <row r="322" ht="15.8" customHeight="1"/>
+    <row r="323" ht="15.8" customHeight="1"/>
+    <row r="324" ht="15.8" customHeight="1"/>
+    <row r="325" ht="15.8" customHeight="1"/>
+    <row r="326" ht="15.8" customHeight="1"/>
+    <row r="327" ht="15.8" customHeight="1"/>
+    <row r="328" ht="15.8" customHeight="1"/>
+    <row r="329" ht="15.8" customHeight="1"/>
+    <row r="330" ht="15.8" customHeight="1"/>
+    <row r="331" ht="15.8" customHeight="1"/>
+    <row r="332" ht="15.8" customHeight="1"/>
+    <row r="333" ht="15.8" customHeight="1"/>
+    <row r="334" ht="15.8" customHeight="1"/>
+    <row r="335" ht="15.8" customHeight="1"/>
+    <row r="336" ht="15.8" customHeight="1"/>
+    <row r="337" ht="15.8" customHeight="1"/>
+    <row r="338" ht="15.8" customHeight="1"/>
+    <row r="339" ht="15.8" customHeight="1"/>
+    <row r="340" ht="15.8" customHeight="1"/>
+    <row r="341" ht="15.8" customHeight="1"/>
+    <row r="342" ht="15.8" customHeight="1"/>
+    <row r="343" ht="15.8" customHeight="1"/>
+    <row r="344" ht="15.8" customHeight="1"/>
+    <row r="345" ht="15.8" customHeight="1"/>
+    <row r="346" ht="15.8" customHeight="1"/>
+    <row r="347" ht="15.8" customHeight="1"/>
+    <row r="348" ht="15.8" customHeight="1"/>
+    <row r="349" ht="15.8" customHeight="1"/>
+    <row r="350" ht="15.8" customHeight="1"/>
+    <row r="351" ht="15.8" customHeight="1"/>
+    <row r="352" ht="15.8" customHeight="1"/>
+    <row r="353" ht="15.8" customHeight="1"/>
+    <row r="354" ht="15.8" customHeight="1"/>
+    <row r="355" ht="15.8" customHeight="1"/>
+    <row r="356" ht="15.8" customHeight="1"/>
+    <row r="357" ht="15.8" customHeight="1"/>
+    <row r="358" ht="15.8" customHeight="1"/>
+    <row r="359" ht="15.8" customHeight="1"/>
+    <row r="360" ht="15.8" customHeight="1"/>
+    <row r="361" ht="15.8" customHeight="1"/>
+    <row r="362" ht="15.8" customHeight="1"/>
+    <row r="363" ht="15.8" customHeight="1"/>
+    <row r="364" ht="15.8" customHeight="1"/>
+    <row r="365" ht="15.8" customHeight="1"/>
+    <row r="366" ht="15.8" customHeight="1"/>
+    <row r="367" ht="15.8" customHeight="1"/>
+    <row r="368" ht="15.8" customHeight="1"/>
+    <row r="369" ht="15.8" customHeight="1"/>
+    <row r="370" ht="15.8" customHeight="1"/>
+    <row r="371" ht="15.8" customHeight="1"/>
+    <row r="372" ht="15.8" customHeight="1"/>
+    <row r="373" ht="15.8" customHeight="1"/>
+    <row r="374" ht="15.8" customHeight="1"/>
+    <row r="375" ht="15.8" customHeight="1"/>
+    <row r="376" ht="15.8" customHeight="1"/>
+    <row r="377" ht="15.8" customHeight="1"/>
+    <row r="378" ht="15.8" customHeight="1"/>
+    <row r="379" ht="15.8" customHeight="1"/>
+    <row r="380" ht="15.8" customHeight="1"/>
+    <row r="381" ht="15.8" customHeight="1"/>
+    <row r="382" ht="15.8" customHeight="1"/>
+    <row r="383" ht="15.8" customHeight="1"/>
+    <row r="384" ht="15.8" customHeight="1"/>
+    <row r="385" ht="15.8" customHeight="1"/>
+    <row r="386" ht="15.8" customHeight="1"/>
+    <row r="387" ht="15.8" customHeight="1"/>
+    <row r="388" ht="15.8" customHeight="1"/>
+    <row r="389" ht="15.8" customHeight="1"/>
+    <row r="390" ht="15.8" customHeight="1"/>
+    <row r="391" ht="15.8" customHeight="1"/>
+    <row r="392" ht="15.8" customHeight="1"/>
+    <row r="393" ht="15.8" customHeight="1"/>
+    <row r="394" ht="15.8" customHeight="1"/>
+    <row r="395" ht="15.8" customHeight="1"/>
+    <row r="396" ht="15.8" customHeight="1"/>
+    <row r="397" ht="15.8" customHeight="1"/>
+    <row r="398" ht="15.8" customHeight="1"/>
+    <row r="399" ht="15.8" customHeight="1"/>
+    <row r="400" ht="15.8" customHeight="1"/>
+    <row r="401" ht="15.8" customHeight="1"/>
+    <row r="402" ht="15.8" customHeight="1"/>
+    <row r="403" ht="15.8" customHeight="1"/>
+    <row r="404" ht="15.8" customHeight="1"/>
+    <row r="405" ht="15.8" customHeight="1"/>
+    <row r="406" ht="15.8" customHeight="1"/>
+    <row r="407" ht="15.8" customHeight="1"/>
+    <row r="408" ht="15.8" customHeight="1"/>
+    <row r="409" ht="15.8" customHeight="1"/>
+    <row r="410" ht="15.8" customHeight="1"/>
+    <row r="411" ht="15.8" customHeight="1"/>
+    <row r="412" ht="15.8" customHeight="1"/>
+    <row r="413" ht="15.8" customHeight="1"/>
+    <row r="414" ht="15.8" customHeight="1"/>
+    <row r="415" ht="15.8" customHeight="1"/>
+    <row r="416" ht="15.8" customHeight="1"/>
+    <row r="417" ht="15.8" customHeight="1"/>
+    <row r="418" ht="15.8" customHeight="1"/>
+    <row r="419" ht="15.8" customHeight="1"/>
+    <row r="420" ht="15.8" customHeight="1"/>
+    <row r="421" ht="15.8" customHeight="1"/>
+    <row r="422" ht="15.8" customHeight="1"/>
+    <row r="423" ht="15.8" customHeight="1"/>
+    <row r="424" ht="15.8" customHeight="1"/>
+    <row r="425" ht="15.8" customHeight="1"/>
+    <row r="426" ht="15.8" customHeight="1"/>
+    <row r="427" ht="15.8" customHeight="1"/>
+    <row r="428" ht="15.8" customHeight="1"/>
+    <row r="429" ht="15.8" customHeight="1"/>
+    <row r="430" ht="15.8" customHeight="1"/>
+    <row r="431" ht="15.8" customHeight="1"/>
+    <row r="432" ht="15.8" customHeight="1"/>
+    <row r="433" ht="15.8" customHeight="1"/>
+    <row r="434" ht="15.8" customHeight="1"/>
+    <row r="435" ht="15.8" customHeight="1"/>
+    <row r="436" ht="15.8" customHeight="1"/>
+    <row r="437" ht="15.8" customHeight="1"/>
+    <row r="438" ht="15.8" customHeight="1"/>
+    <row r="439" ht="15.8" customHeight="1"/>
+    <row r="440" ht="15.8" customHeight="1"/>
+    <row r="441" ht="15.8" customHeight="1"/>
+    <row r="442" ht="15.8" customHeight="1"/>
+    <row r="443" ht="15.8" customHeight="1"/>
+    <row r="444" ht="15.8" customHeight="1"/>
+    <row r="445" ht="15.8" customHeight="1"/>
+    <row r="446" ht="15.8" customHeight="1"/>
+    <row r="447" ht="15.8" customHeight="1"/>
+    <row r="448" ht="15.8" customHeight="1"/>
+    <row r="449" ht="15.8" customHeight="1"/>
+    <row r="450" ht="15.8" customHeight="1"/>
+    <row r="451" ht="15.8" customHeight="1"/>
+    <row r="452" ht="15.8" customHeight="1"/>
+    <row r="453" ht="15.8" customHeight="1"/>
+    <row r="454" ht="15.8" customHeight="1"/>
+    <row r="455" ht="15.8" customHeight="1"/>
+    <row r="456" ht="15.8" customHeight="1"/>
+    <row r="457" ht="15.8" customHeight="1"/>
+    <row r="458" ht="15.8" customHeight="1"/>
+    <row r="459" ht="15.8" customHeight="1"/>
+    <row r="460" ht="15.8" customHeight="1"/>
+    <row r="461" ht="15.8" customHeight="1"/>
+    <row r="462" ht="15.8" customHeight="1"/>
+    <row r="463" ht="15.8" customHeight="1"/>
+    <row r="464" ht="15.8" customHeight="1"/>
+    <row r="465" ht="15.8" customHeight="1"/>
+    <row r="466" ht="15.8" customHeight="1"/>
+    <row r="467" ht="15.8" customHeight="1"/>
+    <row r="468" ht="15.8" customHeight="1"/>
+    <row r="469" ht="15.8" customHeight="1"/>
+    <row r="470" ht="15.8" customHeight="1"/>
+    <row r="471" ht="15.8" customHeight="1"/>
+    <row r="472" ht="15.8" customHeight="1"/>
+    <row r="473" ht="15.8" customHeight="1"/>
+    <row r="474" ht="15.8" customHeight="1"/>
+    <row r="475" ht="15.8" customHeight="1"/>
+    <row r="476" ht="15.8" customHeight="1"/>
+    <row r="477" ht="15.8" customHeight="1"/>
+    <row r="478" ht="15.8" customHeight="1"/>
+    <row r="479" ht="15.8" customHeight="1"/>
+    <row r="480" ht="15.8" customHeight="1"/>
+    <row r="481" ht="15.8" customHeight="1"/>
+    <row r="482" ht="15.8" customHeight="1"/>
+    <row r="483" ht="15.8" customHeight="1"/>
+    <row r="484" ht="15.8" customHeight="1"/>
+    <row r="485" ht="15.8" customHeight="1"/>
+    <row r="486" ht="15.8" customHeight="1"/>
+    <row r="487" ht="15.8" customHeight="1"/>
+    <row r="488" ht="15.8" customHeight="1"/>
+    <row r="489" ht="15.8" customHeight="1"/>
+    <row r="490" ht="15.8" customHeight="1"/>
+    <row r="491" ht="15.8" customHeight="1"/>
+    <row r="492" ht="15.8" customHeight="1"/>
+    <row r="493" ht="15.8" customHeight="1"/>
+    <row r="494" ht="15.8" customHeight="1"/>
+    <row r="495" ht="15.8" customHeight="1"/>
+    <row r="496" ht="15.8" customHeight="1"/>
+    <row r="497" ht="15.8" customHeight="1"/>
+    <row r="498" ht="15.8" customHeight="1"/>
+    <row r="499" ht="15.8" customHeight="1"/>
+    <row r="500" ht="15.8" customHeight="1"/>
+    <row r="501" ht="15.8" customHeight="1"/>
+    <row r="502" ht="15.8" customHeight="1"/>
+    <row r="503" ht="15.8" customHeight="1"/>
+    <row r="504" ht="15.8" customHeight="1"/>
+    <row r="505" ht="15.8" customHeight="1"/>
+    <row r="506" ht="15.8" customHeight="1"/>
+    <row r="507" ht="15.8" customHeight="1"/>
+    <row r="508" ht="15.8" customHeight="1"/>
+    <row r="509" ht="15.8" customHeight="1"/>
+    <row r="510" ht="15.8" customHeight="1"/>
+    <row r="511" ht="15.8" customHeight="1"/>
+    <row r="512" ht="15.8" customHeight="1"/>
+    <row r="513" ht="15.8" customHeight="1"/>
+    <row r="514" ht="15.8" customHeight="1"/>
+    <row r="515" ht="15.8" customHeight="1"/>
+    <row r="516" ht="15.8" customHeight="1"/>
+    <row r="517" ht="15.8" customHeight="1"/>
+    <row r="518" ht="15.8" customHeight="1"/>
+    <row r="519" ht="15.8" customHeight="1"/>
+    <row r="520" ht="15.8" customHeight="1"/>
+    <row r="521" ht="15.8" customHeight="1"/>
+    <row r="522" ht="15.8" customHeight="1"/>
+    <row r="523" ht="15.8" customHeight="1"/>
+    <row r="524" ht="15.8" customHeight="1"/>
+    <row r="525" ht="15.8" customHeight="1"/>
+    <row r="526" ht="15.8" customHeight="1"/>
+    <row r="527" ht="15.8" customHeight="1"/>
+    <row r="528" ht="15.8" customHeight="1"/>
+    <row r="529" ht="15.8" customHeight="1"/>
+    <row r="530" ht="15.8" customHeight="1"/>
+    <row r="531" ht="15.8" customHeight="1"/>
+    <row r="532" ht="15.8" customHeight="1"/>
+    <row r="533" ht="15.8" customHeight="1"/>
+    <row r="534" ht="15.8" customHeight="1"/>
+    <row r="535" ht="15.8" customHeight="1"/>
+    <row r="536" ht="15.8" customHeight="1"/>
+    <row r="537" ht="15.8" customHeight="1"/>
+    <row r="538" ht="15.8" customHeight="1"/>
+    <row r="539" ht="15.8" customHeight="1"/>
+    <row r="540" ht="15.8" customHeight="1"/>
+    <row r="541" ht="15.8" customHeight="1"/>
+    <row r="542" ht="15.8" customHeight="1"/>
+    <row r="543" ht="15.8" customHeight="1"/>
+    <row r="544" ht="15.8" customHeight="1"/>
+    <row r="545" ht="15.8" customHeight="1"/>
+    <row r="546" ht="15.8" customHeight="1"/>
+    <row r="547" ht="15.8" customHeight="1"/>
+    <row r="548" ht="15.8" customHeight="1"/>
+    <row r="549" ht="15.8" customHeight="1"/>
+    <row r="550" ht="15.8" customHeight="1"/>
+    <row r="551" ht="15.8" customHeight="1"/>
+    <row r="552" ht="15.8" customHeight="1"/>
+    <row r="553" ht="15.8" customHeight="1"/>
+    <row r="554" ht="15.8" customHeight="1"/>
+    <row r="555" ht="15.8" customHeight="1"/>
+    <row r="556" ht="15.8" customHeight="1"/>
+    <row r="557" ht="15.8" customHeight="1"/>
+    <row r="558" ht="15.8" customHeight="1"/>
+    <row r="559" ht="15.8" customHeight="1"/>
+    <row r="560" ht="15.8" customHeight="1"/>
+    <row r="561" ht="15.8" customHeight="1"/>
+    <row r="562" ht="15.8" customHeight="1"/>
+    <row r="563" ht="15.8" customHeight="1"/>
+    <row r="564" ht="15.8" customHeight="1"/>
+    <row r="565" ht="15.8" customHeight="1"/>
+    <row r="566" ht="15.8" customHeight="1"/>
+    <row r="567" ht="15.8" customHeight="1"/>
+    <row r="568" ht="15.8" customHeight="1"/>
+    <row r="569" ht="15.8" customHeight="1"/>
+    <row r="570" ht="15.8" customHeight="1"/>
+    <row r="571" ht="15.8" customHeight="1"/>
+    <row r="572" ht="15.8" customHeight="1"/>
+    <row r="573" ht="15.8" customHeight="1"/>
+    <row r="574" ht="15.8" customHeight="1"/>
+    <row r="575" ht="15.8" customHeight="1"/>
+    <row r="576" ht="15.8" customHeight="1"/>
+    <row r="577" ht="15.8" customHeight="1"/>
+    <row r="578" ht="15.8" customHeight="1"/>
+    <row r="579" ht="15.8" customHeight="1"/>
+    <row r="580" ht="15.8" customHeight="1"/>
+    <row r="581" ht="15.8" customHeight="1"/>
+    <row r="582" ht="15.8" customHeight="1"/>
+    <row r="583" ht="15.8" customHeight="1"/>
+    <row r="584" ht="15.8" customHeight="1"/>
+    <row r="585" ht="15.8" customHeight="1"/>
+    <row r="586" ht="15.8" customHeight="1"/>
+    <row r="587" ht="15.8" customHeight="1"/>
+    <row r="588" ht="15.8" customHeight="1"/>
+    <row r="589" ht="15.8" customHeight="1"/>
+    <row r="590" ht="15.8" customHeight="1"/>
+    <row r="591" ht="15.8" customHeight="1"/>
+    <row r="592" ht="15.8" customHeight="1"/>
+    <row r="593" ht="15.8" customHeight="1"/>
+    <row r="594" ht="15.8" customHeight="1"/>
+    <row r="595" ht="15.8" customHeight="1"/>
+    <row r="596" ht="15.8" customHeight="1"/>
+    <row r="597" ht="15.8" customHeight="1"/>
+    <row r="598" ht="15.8" customHeight="1"/>
+    <row r="599" ht="15.8" customHeight="1"/>
+    <row r="600" ht="15.8" customHeight="1"/>
+    <row r="601" ht="15.8" customHeight="1"/>
+    <row r="602" ht="15.8" customHeight="1"/>
+    <row r="603" ht="15.8" customHeight="1"/>
+    <row r="604" ht="15.8" customHeight="1"/>
+    <row r="605" ht="15.8" customHeight="1"/>
+    <row r="606" ht="15.8" customHeight="1"/>
+    <row r="607" ht="15.8" customHeight="1"/>
+    <row r="608" ht="15.8" customHeight="1"/>
+    <row r="609" ht="15.8" customHeight="1"/>
+    <row r="610" ht="15.8" customHeight="1"/>
+    <row r="611" ht="15.8" customHeight="1"/>
+    <row r="612" ht="15.8" customHeight="1"/>
+    <row r="613" ht="15.8" customHeight="1"/>
+    <row r="614" ht="15.8" customHeight="1"/>
+    <row r="615" ht="15.8" customHeight="1"/>
+    <row r="616" ht="15.8" customHeight="1"/>
+    <row r="617" ht="15.8" customHeight="1"/>
+    <row r="618" ht="15.8" customHeight="1"/>
+    <row r="619" ht="15.8" customHeight="1"/>
+    <row r="620" ht="15.8" customHeight="1"/>
+    <row r="621" ht="15.8" customHeight="1"/>
+    <row r="622" ht="15.8" customHeight="1"/>
+    <row r="623" ht="15.8" customHeight="1"/>
+    <row r="624" ht="15.8" customHeight="1"/>
+    <row r="625" ht="15.8" customHeight="1"/>
+    <row r="626" ht="15.8" customHeight="1"/>
+    <row r="627" ht="15.8" customHeight="1"/>
+    <row r="628" ht="15.8" customHeight="1"/>
+    <row r="629" ht="15.8" customHeight="1"/>
+    <row r="630" ht="15.8" customHeight="1"/>
+    <row r="631" ht="15.8" customHeight="1"/>
+    <row r="632" ht="15.8" customHeight="1"/>
+    <row r="633" ht="15.8" customHeight="1"/>
+    <row r="634" ht="15.8" customHeight="1"/>
+    <row r="635" ht="15.8" customHeight="1"/>
+    <row r="636" ht="15.8" customHeight="1"/>
+    <row r="637" ht="15.8" customHeight="1"/>
+    <row r="638" ht="15.8" customHeight="1"/>
+    <row r="639" ht="15.8" customHeight="1"/>
+    <row r="640" ht="15.8" customHeight="1"/>
+    <row r="641" ht="15.8" customHeight="1"/>
+    <row r="642" ht="15.8" customHeight="1"/>
+    <row r="643" ht="15.8" customHeight="1"/>
+    <row r="644" ht="15.8" customHeight="1"/>
+    <row r="645" ht="15.8" customHeight="1"/>
+    <row r="646" ht="15.8" customHeight="1"/>
+    <row r="647" ht="15.8" customHeight="1"/>
+    <row r="648" ht="15.8" customHeight="1"/>
+    <row r="649" ht="15.8" customHeight="1"/>
+    <row r="650" ht="15.8" customHeight="1"/>
+    <row r="651" ht="15.8" customHeight="1"/>
+    <row r="652" ht="15.8" customHeight="1"/>
+    <row r="653" ht="15.8" customHeight="1"/>
+    <row r="654" ht="15.8" customHeight="1"/>
+    <row r="655" ht="15.8" customHeight="1"/>
+    <row r="656" ht="15.8" customHeight="1"/>
+    <row r="657" ht="15.8" customHeight="1"/>
+    <row r="658" ht="15.8" customHeight="1"/>
+    <row r="659" ht="15.8" customHeight="1"/>
+    <row r="660" ht="15.8" customHeight="1"/>
+    <row r="661" ht="15.8" customHeight="1"/>
+    <row r="662" ht="15.8" customHeight="1"/>
+    <row r="663" ht="15.8" customHeight="1"/>
+    <row r="664" ht="15.8" customHeight="1"/>
+    <row r="665" ht="15.8" customHeight="1"/>
+    <row r="666" ht="15.8" customHeight="1"/>
+    <row r="667" ht="15.8" customHeight="1"/>
+    <row r="668" ht="15.8" customHeight="1"/>
+    <row r="669" ht="15.8" customHeight="1"/>
+    <row r="670" ht="15.8" customHeight="1"/>
+    <row r="671" ht="15.8" customHeight="1"/>
+    <row r="672" ht="15.8" customHeight="1"/>
+    <row r="673" ht="15.8" customHeight="1"/>
+    <row r="674" ht="15.8" customHeight="1"/>
+    <row r="675" ht="15.8" customHeight="1"/>
+    <row r="676" ht="15.8" customHeight="1"/>
+    <row r="677" ht="15.8" customHeight="1"/>
+    <row r="678" ht="15.8" customHeight="1"/>
+    <row r="679" ht="15.8" customHeight="1"/>
+    <row r="680" ht="15.8" customHeight="1"/>
+    <row r="681" ht="15.8" customHeight="1"/>
+    <row r="682" ht="15.8" customHeight="1"/>
+    <row r="683" ht="15.8" customHeight="1"/>
+    <row r="684" ht="15.8" customHeight="1"/>
+    <row r="685" ht="15.8" customHeight="1"/>
+    <row r="686" ht="15.8" customHeight="1"/>
+    <row r="687" ht="15.8" customHeight="1"/>
+    <row r="688" ht="15.8" customHeight="1"/>
+    <row r="689" ht="15.8" customHeight="1"/>
+    <row r="690" ht="15.8" customHeight="1"/>
+    <row r="691" ht="15.8" customHeight="1"/>
+    <row r="692" ht="15.8" customHeight="1"/>
+    <row r="693" ht="15.8" customHeight="1"/>
+    <row r="694" ht="15.8" customHeight="1"/>
+    <row r="695" ht="15.8" customHeight="1"/>
+    <row r="696" ht="15.8" customHeight="1"/>
+    <row r="697" ht="15.8" customHeight="1"/>
+    <row r="698" ht="15.8" customHeight="1"/>
+    <row r="699" ht="15.8" customHeight="1"/>
+    <row r="700" ht="15.8" customHeight="1"/>
+    <row r="701" ht="15.8" customHeight="1"/>
+    <row r="702" ht="15.8" customHeight="1"/>
+    <row r="703" ht="15.8" customHeight="1"/>
+    <row r="704" ht="15.8" customHeight="1"/>
+    <row r="705" ht="15.8" customHeight="1"/>
+    <row r="706" ht="15.8" customHeight="1"/>
+    <row r="707" ht="15.8" customHeight="1"/>
+    <row r="708" ht="15.8" customHeight="1"/>
+    <row r="709" ht="15.8" customHeight="1"/>
+    <row r="710" ht="15.8" customHeight="1"/>
+    <row r="711" ht="15.8" customHeight="1"/>
+    <row r="712" ht="15.8" customHeight="1"/>
+    <row r="713" ht="15.8" customHeight="1"/>
+    <row r="714" ht="15.8" customHeight="1"/>
+    <row r="715" ht="15.8" customHeight="1"/>
+    <row r="716" ht="15.8" customHeight="1"/>
+    <row r="717" ht="15.8" customHeight="1"/>
+    <row r="718" ht="15.8" customHeight="1"/>
+    <row r="719" ht="15.8" customHeight="1"/>
+    <row r="720" ht="15.8" customHeight="1"/>
+    <row r="721" ht="15.8" customHeight="1"/>
+    <row r="722" ht="15.8" customHeight="1"/>
+    <row r="723" ht="15.8" customHeight="1"/>
+    <row r="724" ht="15.8" customHeight="1"/>
+    <row r="725" ht="15.8" customHeight="1"/>
+    <row r="726" ht="15.8" customHeight="1"/>
+    <row r="727" ht="15.8" customHeight="1"/>
+    <row r="728" ht="15.8" customHeight="1"/>
+    <row r="729" ht="15.8" customHeight="1"/>
+    <row r="730" ht="15.8" customHeight="1"/>
+    <row r="731" ht="15.8" customHeight="1"/>
+    <row r="732" ht="15.8" customHeight="1"/>
+    <row r="733" ht="15.8" customHeight="1"/>
+    <row r="734" ht="15.8" customHeight="1"/>
+    <row r="735" ht="15.8" customHeight="1"/>
+    <row r="736" ht="15.8" customHeight="1"/>
+    <row r="737" ht="15.8" customHeight="1"/>
+    <row r="738" ht="15.8" customHeight="1"/>
+    <row r="739" ht="15.8" customHeight="1"/>
+    <row r="740" ht="15.8" customHeight="1"/>
+    <row r="741" ht="15.8" customHeight="1"/>
+    <row r="742" ht="15.8" customHeight="1"/>
+    <row r="743" ht="15.8" customHeight="1"/>
+    <row r="744" ht="15.8" customHeight="1"/>
+    <row r="745" ht="15.8" customHeight="1"/>
+    <row r="746" ht="15.8" customHeight="1"/>
+    <row r="747" ht="15.8" customHeight="1"/>
+    <row r="748" ht="15.8" customHeight="1"/>
+    <row r="749" ht="15.8" customHeight="1"/>
+    <row r="750" ht="15.8" customHeight="1"/>
+    <row r="751" ht="15.8" customHeight="1"/>
+    <row r="752" ht="15.8" customHeight="1"/>
+    <row r="753" ht="15.8" customHeight="1"/>
+    <row r="754" ht="15.8" customHeight="1"/>
+    <row r="755" ht="15.8" customHeight="1"/>
+    <row r="756" ht="15.8" customHeight="1"/>
+    <row r="757" ht="15.8" customHeight="1"/>
+    <row r="758" ht="15.8" customHeight="1"/>
+    <row r="759" ht="15.8" customHeight="1"/>
+    <row r="760" ht="15.8" customHeight="1"/>
+    <row r="761" ht="15.8" customHeight="1"/>
+    <row r="762" ht="15.8" customHeight="1"/>
+    <row r="763" ht="15.8" customHeight="1"/>
+    <row r="764" ht="15.8" customHeight="1"/>
+    <row r="765" ht="15.8" customHeight="1"/>
+    <row r="766" ht="15.8" customHeight="1"/>
+    <row r="767" ht="15.8" customHeight="1"/>
+    <row r="768" ht="15.8" customHeight="1"/>
+    <row r="769" ht="15.8" customHeight="1"/>
+    <row r="770" ht="15.8" customHeight="1"/>
+    <row r="771" ht="15.8" customHeight="1"/>
+    <row r="772" ht="15.8" customHeight="1"/>
+    <row r="773" ht="15.8" customHeight="1"/>
+    <row r="774" ht="15.8" customHeight="1"/>
+    <row r="775" ht="15.8" customHeight="1"/>
+    <row r="776" ht="15.8" customHeight="1"/>
+    <row r="777" ht="15.8" customHeight="1"/>
+    <row r="778" ht="15.8" customHeight="1"/>
+    <row r="779" ht="15.8" customHeight="1"/>
+    <row r="780" ht="15.8" customHeight="1"/>
+    <row r="781" ht="15.8" customHeight="1"/>
+    <row r="782" ht="15.8" customHeight="1"/>
+    <row r="783" ht="15.8" customHeight="1"/>
+    <row r="784" ht="15.8" customHeight="1"/>
+    <row r="785" ht="15.8" customHeight="1"/>
+    <row r="786" ht="15.8" customHeight="1"/>
+    <row r="787" ht="15.8" customHeight="1"/>
+    <row r="788" ht="15.8" customHeight="1"/>
+    <row r="789" ht="15.8" customHeight="1"/>
+    <row r="790" ht="15.8" customHeight="1"/>
+    <row r="791" ht="15.8" customHeight="1"/>
+    <row r="792" ht="15.8" customHeight="1"/>
+    <row r="793" ht="15.8" customHeight="1"/>
+    <row r="794" ht="15.8" customHeight="1"/>
+    <row r="795" ht="15.8" customHeight="1"/>
+    <row r="796" ht="15.8" customHeight="1"/>
+    <row r="797" ht="15.8" customHeight="1"/>
+    <row r="798" ht="15.8" customHeight="1"/>
+    <row r="799" ht="15.8" customHeight="1"/>
+    <row r="800" ht="15.8" customHeight="1"/>
+    <row r="801" ht="15.8" customHeight="1"/>
+    <row r="802" ht="15.8" customHeight="1"/>
+    <row r="803" ht="15.8" customHeight="1"/>
+    <row r="804" ht="15.8" customHeight="1"/>
+    <row r="805" ht="15.8" customHeight="1"/>
+    <row r="806" ht="15.8" customHeight="1"/>
+    <row r="807" ht="15.8" customHeight="1"/>
+    <row r="808" ht="15.8" customHeight="1"/>
+    <row r="809" ht="15.8" customHeight="1"/>
+    <row r="810" ht="15.8" customHeight="1"/>
+    <row r="811" ht="15.8" customHeight="1"/>
+    <row r="812" ht="15.8" customHeight="1"/>
+    <row r="813" ht="15.8" customHeight="1"/>
+    <row r="814" ht="15.8" customHeight="1"/>
+    <row r="815" ht="15.8" customHeight="1"/>
+    <row r="816" ht="15.8" customHeight="1"/>
+    <row r="817" ht="15.8" customHeight="1"/>
+    <row r="818" ht="15.8" customHeight="1"/>
+    <row r="819" ht="15.8" customHeight="1"/>
+    <row r="820" ht="15.8" customHeight="1"/>
+    <row r="821" ht="15.8" customHeight="1"/>
+    <row r="822" ht="15.8" customHeight="1"/>
+    <row r="823" ht="15.8" customHeight="1"/>
+    <row r="824" ht="15.8" customHeight="1"/>
+    <row r="825" ht="15.8" customHeight="1"/>
+    <row r="826" ht="15.8" customHeight="1"/>
+    <row r="827" ht="15.8" customHeight="1"/>
+    <row r="828" ht="15.8" customHeight="1"/>
+    <row r="829" ht="15.8" customHeight="1"/>
+    <row r="830" ht="15.8" customHeight="1"/>
+    <row r="831" ht="15.8" customHeight="1"/>
+    <row r="832" ht="15.8" customHeight="1"/>
+    <row r="833" ht="15.8" customHeight="1"/>
+    <row r="834" ht="15.8" customHeight="1"/>
+    <row r="835" ht="15.8" customHeight="1"/>
+    <row r="836" ht="15.8" customHeight="1"/>
+    <row r="837" ht="15.8" customHeight="1"/>
+    <row r="838" ht="15.8" customHeight="1"/>
+    <row r="839" ht="15.8" customHeight="1"/>
+    <row r="840" ht="15.8" customHeight="1"/>
+    <row r="841" ht="15.8" customHeight="1"/>
+    <row r="842" ht="15.8" customHeight="1"/>
+    <row r="843" ht="15.8" customHeight="1"/>
+    <row r="844" ht="15.8" customHeight="1"/>
+    <row r="845" ht="15.8" customHeight="1"/>
+    <row r="846" ht="15.8" customHeight="1"/>
+    <row r="847" ht="15.8" customHeight="1"/>
+    <row r="848" ht="15.8" customHeight="1"/>
+    <row r="849" ht="15.8" customHeight="1"/>
+    <row r="850" ht="15.8" customHeight="1"/>
+    <row r="851" ht="15.8" customHeight="1"/>
+    <row r="852" ht="15.8" customHeight="1"/>
+    <row r="853" ht="15.8" customHeight="1"/>
+    <row r="854" ht="15.8" customHeight="1"/>
+    <row r="855" ht="15.8" customHeight="1"/>
+    <row r="856" ht="15.8" customHeight="1"/>
+    <row r="857" ht="15.8" customHeight="1"/>
+    <row r="858" ht="15.8" customHeight="1"/>
+    <row r="859" ht="15.8" customHeight="1"/>
+    <row r="860" ht="15.8" customHeight="1"/>
+    <row r="861" ht="15.8" customHeight="1"/>
+    <row r="862" ht="15.8" customHeight="1"/>
+    <row r="863" ht="15.8" customHeight="1"/>
+    <row r="864" ht="15.8" customHeight="1"/>
+    <row r="865" ht="15.8" customHeight="1"/>
+    <row r="866" ht="15.8" customHeight="1"/>
+    <row r="867" ht="15.8" customHeight="1"/>
+    <row r="868" ht="15.8" customHeight="1"/>
+    <row r="869" ht="15.8" customHeight="1"/>
+    <row r="870" ht="15.8" customHeight="1"/>
+    <row r="871" ht="15.8" customHeight="1"/>
+    <row r="872" ht="15.8" customHeight="1"/>
+    <row r="873" ht="15.8" customHeight="1"/>
+    <row r="874" ht="15.8" customHeight="1"/>
+    <row r="875" ht="15.8" customHeight="1"/>
+    <row r="876" ht="15.8" customHeight="1"/>
+    <row r="877" ht="15.8" customHeight="1"/>
+    <row r="878" ht="15.8" customHeight="1"/>
+    <row r="879" ht="15.8" customHeight="1"/>
+    <row r="880" ht="15.8" customHeight="1"/>
+    <row r="881" ht="15.8" customHeight="1"/>
+    <row r="882" ht="15.8" customHeight="1"/>
+    <row r="883" ht="15.8" customHeight="1"/>
+    <row r="884" ht="15.8" customHeight="1"/>
+    <row r="885" ht="15.8" customHeight="1"/>
+    <row r="886" ht="15.8" customHeight="1"/>
+    <row r="887" ht="15.8" customHeight="1"/>
+    <row r="888" ht="15.8" customHeight="1"/>
+    <row r="889" ht="15.8" customHeight="1"/>
+    <row r="890" ht="15.8" customHeight="1"/>
+    <row r="891" ht="15.8" customHeight="1"/>
+    <row r="892" ht="15.8" customHeight="1"/>
+    <row r="893" ht="15.8" customHeight="1"/>
+    <row r="894" ht="15.8" customHeight="1"/>
+    <row r="895" ht="15.8" customHeight="1"/>
+    <row r="896" ht="15.8" customHeight="1"/>
+    <row r="897" ht="15.8" customHeight="1"/>
+    <row r="898" ht="15.8" customHeight="1"/>
+    <row r="899" ht="15.8" customHeight="1"/>
+    <row r="900" ht="15.8" customHeight="1"/>
+    <row r="901" ht="15.8" customHeight="1"/>
+    <row r="902" ht="15.8" customHeight="1"/>
+    <row r="903" ht="15.8" customHeight="1"/>
+    <row r="904" ht="15.8" customHeight="1"/>
+    <row r="905" ht="15.8" customHeight="1"/>
+    <row r="906" ht="15.8" customHeight="1"/>
+    <row r="907" ht="15.8" customHeight="1"/>
+    <row r="908" ht="15.8" customHeight="1"/>
+    <row r="909" ht="15.8" customHeight="1"/>
+    <row r="910" ht="15.8" customHeight="1"/>
+    <row r="911" ht="15.8" customHeight="1"/>
+    <row r="912" ht="15.8" customHeight="1"/>
+    <row r="913" ht="15.8" customHeight="1"/>
+    <row r="914" ht="15.8" customHeight="1"/>
+    <row r="915" ht="15.8" customHeight="1"/>
+    <row r="916" ht="15.8" customHeight="1"/>
+    <row r="917" ht="15.8" customHeight="1"/>
+    <row r="918" ht="15.8" customHeight="1"/>
+    <row r="919" ht="15.8" customHeight="1"/>
+    <row r="920" ht="15.8" customHeight="1"/>
+    <row r="921" ht="15.8" customHeight="1"/>
+    <row r="922" ht="15.8" customHeight="1"/>
+    <row r="923" ht="15.8" customHeight="1"/>
+    <row r="924" ht="15.8" customHeight="1"/>
+    <row r="925" ht="15.8" customHeight="1"/>
+    <row r="926" ht="15.8" customHeight="1"/>
+    <row r="927" ht="15.8" customHeight="1"/>
+    <row r="928" ht="15.8" customHeight="1"/>
+    <row r="929" ht="15.8" customHeight="1"/>
+    <row r="930" ht="15.8" customHeight="1"/>
+    <row r="931" ht="15.8" customHeight="1"/>
+    <row r="932" ht="15.8" customHeight="1"/>
+    <row r="933" ht="15.8" customHeight="1"/>
+    <row r="934" ht="15.8" customHeight="1"/>
+    <row r="935" ht="15.8" customHeight="1"/>
+    <row r="936" ht="15.8" customHeight="1"/>
+    <row r="937" ht="15.8" customHeight="1"/>
+    <row r="938" ht="15.8" customHeight="1"/>
+    <row r="939" ht="15.8" customHeight="1"/>
+    <row r="940" ht="15.8" customHeight="1"/>
+    <row r="941" ht="15.8" customHeight="1"/>
+    <row r="942" ht="15.8" customHeight="1"/>
+    <row r="943" ht="15.8" customHeight="1"/>
+    <row r="944" ht="15.8" customHeight="1"/>
+    <row r="945" ht="15.8" customHeight="1"/>
+    <row r="946" ht="15.8" customHeight="1"/>
+    <row r="947" ht="15.8" customHeight="1"/>
+    <row r="948" ht="15.8" customHeight="1"/>
+    <row r="949" ht="15.8" customHeight="1"/>
+    <row r="950" ht="15.8" customHeight="1"/>
+    <row r="951" ht="15.8" customHeight="1"/>
+    <row r="952" ht="15.8" customHeight="1"/>
+    <row r="953" ht="15.8" customHeight="1"/>
+    <row r="954" ht="15.8" customHeight="1"/>
+    <row r="955" ht="15.8" customHeight="1"/>
+    <row r="956" ht="15.8" customHeight="1"/>
+    <row r="957" ht="15.8" customHeight="1"/>
+    <row r="958" ht="15.8" customHeight="1"/>
+    <row r="959" ht="15.8" customHeight="1"/>
+    <row r="960" ht="15.8" customHeight="1"/>
+    <row r="961" ht="15.8" customHeight="1"/>
+    <row r="962" ht="15.8" customHeight="1"/>
+    <row r="963" ht="15.8" customHeight="1"/>
+    <row r="964" ht="15.8" customHeight="1"/>
+    <row r="965" ht="15.8" customHeight="1"/>
+    <row r="966" ht="15.8" customHeight="1"/>
+    <row r="967" ht="15.8" customHeight="1"/>
+    <row r="968" ht="15.8" customHeight="1"/>
+    <row r="969" ht="15.8" customHeight="1"/>
+    <row r="970" ht="15.8" customHeight="1"/>
+    <row r="971" ht="15.8" customHeight="1"/>
+    <row r="972" ht="15.8" customHeight="1"/>
+    <row r="973" ht="15.8" customHeight="1"/>
+    <row r="974" ht="15.8" customHeight="1"/>
+    <row r="975" ht="15.8" customHeight="1"/>
+    <row r="976" ht="15.8" customHeight="1"/>
+    <row r="977" ht="15.8" customHeight="1"/>
+    <row r="978" ht="15.8" customHeight="1"/>
+    <row r="979" ht="15.8" customHeight="1"/>
+    <row r="980" ht="15.8" customHeight="1"/>
+    <row r="981" ht="15.8" customHeight="1"/>
+    <row r="982" ht="15.8" customHeight="1"/>
+    <row r="983" ht="15.8" customHeight="1"/>
+    <row r="984" ht="15.8" customHeight="1"/>
+    <row r="985" ht="15.8" customHeight="1"/>
+    <row r="986" ht="15.8" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P29"/>
-  <mergeCells count="2">
+  <autoFilter ref="A7:P21" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="7" hiddenButton="1" showButton="0"/>
+    <filterColumn colId="8" hiddenButton="1" showButton="0"/>
+    <filterColumn colId="9" hiddenButton="1" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="20">
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A9:A19"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.1" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="6" width="14.44140625" customWidth="1"/>
+    <col min="1" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="13.2">
+    <row r="2" spans="2:3" ht="13.4">
       <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="2:3" ht="13.4">
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="13.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="2:3" ht="13.4">
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="13.2">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="2:3" ht="13.4">
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="6" spans="2:3" ht="13.4">
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="13.2">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="13.2">
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.8" customHeight="1"/>
+    <row r="22" ht="15.8" customHeight="1"/>
+    <row r="23" ht="15.8" customHeight="1"/>
+    <row r="24" ht="15.8" customHeight="1"/>
+    <row r="25" ht="15.8" customHeight="1"/>
+    <row r="26" ht="15.8" customHeight="1"/>
+    <row r="27" ht="15.8" customHeight="1"/>
+    <row r="28" ht="15.8" customHeight="1"/>
+    <row r="29" ht="15.8" customHeight="1"/>
+    <row r="30" ht="15.8" customHeight="1"/>
+    <row r="31" ht="15.8" customHeight="1"/>
+    <row r="32" ht="15.8" customHeight="1"/>
+    <row r="33" ht="15.8" customHeight="1"/>
+    <row r="34" ht="15.8" customHeight="1"/>
+    <row r="35" ht="15.8" customHeight="1"/>
+    <row r="36" ht="15.8" customHeight="1"/>
+    <row r="37" ht="15.8" customHeight="1"/>
+    <row r="38" ht="15.8" customHeight="1"/>
+    <row r="39" ht="15.8" customHeight="1"/>
+    <row r="40" ht="15.8" customHeight="1"/>
+    <row r="41" ht="15.8" customHeight="1"/>
+    <row r="42" ht="15.8" customHeight="1"/>
+    <row r="43" ht="15.8" customHeight="1"/>
+    <row r="44" ht="15.8" customHeight="1"/>
+    <row r="45" ht="15.8" customHeight="1"/>
+    <row r="46" ht="15.8" customHeight="1"/>
+    <row r="47" ht="15.8" customHeight="1"/>
+    <row r="48" ht="15.8" customHeight="1"/>
+    <row r="49" ht="15.8" customHeight="1"/>
+    <row r="50" ht="15.8" customHeight="1"/>
+    <row r="51" ht="15.8" customHeight="1"/>
+    <row r="52" ht="15.8" customHeight="1"/>
+    <row r="53" ht="15.8" customHeight="1"/>
+    <row r="54" ht="15.8" customHeight="1"/>
+    <row r="55" ht="15.8" customHeight="1"/>
+    <row r="56" ht="15.8" customHeight="1"/>
+    <row r="57" ht="15.8" customHeight="1"/>
+    <row r="58" ht="15.8" customHeight="1"/>
+    <row r="59" ht="15.8" customHeight="1"/>
+    <row r="60" ht="15.8" customHeight="1"/>
+    <row r="61" ht="15.8" customHeight="1"/>
+    <row r="62" ht="15.8" customHeight="1"/>
+    <row r="63" ht="15.8" customHeight="1"/>
+    <row r="64" ht="15.8" customHeight="1"/>
+    <row r="65" ht="15.8" customHeight="1"/>
+    <row r="66" ht="15.8" customHeight="1"/>
+    <row r="67" ht="15.8" customHeight="1"/>
+    <row r="68" ht="15.8" customHeight="1"/>
+    <row r="69" ht="15.8" customHeight="1"/>
+    <row r="70" ht="15.8" customHeight="1"/>
+    <row r="71" ht="15.8" customHeight="1"/>
+    <row r="72" ht="15.8" customHeight="1"/>
+    <row r="73" ht="15.8" customHeight="1"/>
+    <row r="74" ht="15.8" customHeight="1"/>
+    <row r="75" ht="15.8" customHeight="1"/>
+    <row r="76" ht="15.8" customHeight="1"/>
+    <row r="77" ht="15.8" customHeight="1"/>
+    <row r="78" ht="15.8" customHeight="1"/>
+    <row r="79" ht="15.8" customHeight="1"/>
+    <row r="80" ht="15.8" customHeight="1"/>
+    <row r="81" ht="15.8" customHeight="1"/>
+    <row r="82" ht="15.8" customHeight="1"/>
+    <row r="83" ht="15.8" customHeight="1"/>
+    <row r="84" ht="15.8" customHeight="1"/>
+    <row r="85" ht="15.8" customHeight="1"/>
+    <row r="86" ht="15.8" customHeight="1"/>
+    <row r="87" ht="15.8" customHeight="1"/>
+    <row r="88" ht="15.8" customHeight="1"/>
+    <row r="89" ht="15.8" customHeight="1"/>
+    <row r="90" ht="15.8" customHeight="1"/>
+    <row r="91" ht="15.8" customHeight="1"/>
+    <row r="92" ht="15.8" customHeight="1"/>
+    <row r="93" ht="15.8" customHeight="1"/>
+    <row r="94" ht="15.8" customHeight="1"/>
+    <row r="95" ht="15.8" customHeight="1"/>
+    <row r="96" ht="15.8" customHeight="1"/>
+    <row r="97" ht="15.8" customHeight="1"/>
+    <row r="98" ht="15.8" customHeight="1"/>
+    <row r="99" ht="15.8" customHeight="1"/>
+    <row r="100" ht="15.8" customHeight="1"/>
+    <row r="101" ht="15.8" customHeight="1"/>
+    <row r="102" ht="15.8" customHeight="1"/>
+    <row r="103" ht="15.8" customHeight="1"/>
+    <row r="104" ht="15.8" customHeight="1"/>
+    <row r="105" ht="15.8" customHeight="1"/>
+    <row r="106" ht="15.8" customHeight="1"/>
+    <row r="107" ht="15.8" customHeight="1"/>
+    <row r="108" ht="15.8" customHeight="1"/>
+    <row r="109" ht="15.8" customHeight="1"/>
+    <row r="110" ht="15.8" customHeight="1"/>
+    <row r="111" ht="15.8" customHeight="1"/>
+    <row r="112" ht="15.8" customHeight="1"/>
+    <row r="113" ht="15.8" customHeight="1"/>
+    <row r="114" ht="15.8" customHeight="1"/>
+    <row r="115" ht="15.8" customHeight="1"/>
+    <row r="116" ht="15.8" customHeight="1"/>
+    <row r="117" ht="15.8" customHeight="1"/>
+    <row r="118" ht="15.8" customHeight="1"/>
+    <row r="119" ht="15.8" customHeight="1"/>
+    <row r="120" ht="15.8" customHeight="1"/>
+    <row r="121" ht="15.8" customHeight="1"/>
+    <row r="122" ht="15.8" customHeight="1"/>
+    <row r="123" ht="15.8" customHeight="1"/>
+    <row r="124" ht="15.8" customHeight="1"/>
+    <row r="125" ht="15.8" customHeight="1"/>
+    <row r="126" ht="15.8" customHeight="1"/>
+    <row r="127" ht="15.8" customHeight="1"/>
+    <row r="128" ht="15.8" customHeight="1"/>
+    <row r="129" ht="15.8" customHeight="1"/>
+    <row r="130" ht="15.8" customHeight="1"/>
+    <row r="131" ht="15.8" customHeight="1"/>
+    <row r="132" ht="15.8" customHeight="1"/>
+    <row r="133" ht="15.8" customHeight="1"/>
+    <row r="134" ht="15.8" customHeight="1"/>
+    <row r="135" ht="15.8" customHeight="1"/>
+    <row r="136" ht="15.8" customHeight="1"/>
+    <row r="137" ht="15.8" customHeight="1"/>
+    <row r="138" ht="15.8" customHeight="1"/>
+    <row r="139" ht="15.8" customHeight="1"/>
+    <row r="140" ht="15.8" customHeight="1"/>
+    <row r="141" ht="15.8" customHeight="1"/>
+    <row r="142" ht="15.8" customHeight="1"/>
+    <row r="143" ht="15.8" customHeight="1"/>
+    <row r="144" ht="15.8" customHeight="1"/>
+    <row r="145" ht="15.8" customHeight="1"/>
+    <row r="146" ht="15.8" customHeight="1"/>
+    <row r="147" ht="15.8" customHeight="1"/>
+    <row r="148" ht="15.8" customHeight="1"/>
+    <row r="149" ht="15.8" customHeight="1"/>
+    <row r="150" ht="15.8" customHeight="1"/>
+    <row r="151" ht="15.8" customHeight="1"/>
+    <row r="152" ht="15.8" customHeight="1"/>
+    <row r="153" ht="15.8" customHeight="1"/>
+    <row r="154" ht="15.8" customHeight="1"/>
+    <row r="155" ht="15.8" customHeight="1"/>
+    <row r="156" ht="15.8" customHeight="1"/>
+    <row r="157" ht="15.8" customHeight="1"/>
+    <row r="158" ht="15.8" customHeight="1"/>
+    <row r="159" ht="15.8" customHeight="1"/>
+    <row r="160" ht="15.8" customHeight="1"/>
+    <row r="161" ht="15.8" customHeight="1"/>
+    <row r="162" ht="15.8" customHeight="1"/>
+    <row r="163" ht="15.8" customHeight="1"/>
+    <row r="164" ht="15.8" customHeight="1"/>
+    <row r="165" ht="15.8" customHeight="1"/>
+    <row r="166" ht="15.8" customHeight="1"/>
+    <row r="167" ht="15.8" customHeight="1"/>
+    <row r="168" ht="15.8" customHeight="1"/>
+    <row r="169" ht="15.8" customHeight="1"/>
+    <row r="170" ht="15.8" customHeight="1"/>
+    <row r="171" ht="15.8" customHeight="1"/>
+    <row r="172" ht="15.8" customHeight="1"/>
+    <row r="173" ht="15.8" customHeight="1"/>
+    <row r="174" ht="15.8" customHeight="1"/>
+    <row r="175" ht="15.8" customHeight="1"/>
+    <row r="176" ht="15.8" customHeight="1"/>
+    <row r="177" ht="15.8" customHeight="1"/>
+    <row r="178" ht="15.8" customHeight="1"/>
+    <row r="179" ht="15.8" customHeight="1"/>
+    <row r="180" ht="15.8" customHeight="1"/>
+    <row r="181" ht="15.8" customHeight="1"/>
+    <row r="182" ht="15.8" customHeight="1"/>
+    <row r="183" ht="15.8" customHeight="1"/>
+    <row r="184" ht="15.8" customHeight="1"/>
+    <row r="185" ht="15.8" customHeight="1"/>
+    <row r="186" ht="15.8" customHeight="1"/>
+    <row r="187" ht="15.8" customHeight="1"/>
+    <row r="188" ht="15.8" customHeight="1"/>
+    <row r="189" ht="15.8" customHeight="1"/>
+    <row r="190" ht="15.8" customHeight="1"/>
+    <row r="191" ht="15.8" customHeight="1"/>
+    <row r="192" ht="15.8" customHeight="1"/>
+    <row r="193" ht="15.8" customHeight="1"/>
+    <row r="194" ht="15.8" customHeight="1"/>
+    <row r="195" ht="15.8" customHeight="1"/>
+    <row r="196" ht="15.8" customHeight="1"/>
+    <row r="197" ht="15.8" customHeight="1"/>
+    <row r="198" ht="15.8" customHeight="1"/>
+    <row r="199" ht="15.8" customHeight="1"/>
+    <row r="200" ht="15.8" customHeight="1"/>
+    <row r="201" ht="15.8" customHeight="1"/>
+    <row r="202" ht="15.8" customHeight="1"/>
+    <row r="203" ht="15.8" customHeight="1"/>
+    <row r="204" ht="15.8" customHeight="1"/>
+    <row r="205" ht="15.8" customHeight="1"/>
+    <row r="206" ht="15.8" customHeight="1"/>
+    <row r="207" ht="15.8" customHeight="1"/>
+    <row r="208" ht="15.8" customHeight="1"/>
+    <row r="209" ht="15.8" customHeight="1"/>
+    <row r="210" ht="15.8" customHeight="1"/>
+    <row r="211" ht="15.8" customHeight="1"/>
+    <row r="212" ht="15.8" customHeight="1"/>
+    <row r="213" ht="15.8" customHeight="1"/>
+    <row r="214" ht="15.8" customHeight="1"/>
+    <row r="215" ht="15.8" customHeight="1"/>
+    <row r="216" ht="15.8" customHeight="1"/>
+    <row r="217" ht="15.8" customHeight="1"/>
+    <row r="218" ht="15.8" customHeight="1"/>
+    <row r="219" ht="15.8" customHeight="1"/>
+    <row r="220" ht="15.8" customHeight="1"/>
+    <row r="221" ht="15.8" customHeight="1"/>
+    <row r="222" ht="15.8" customHeight="1"/>
+    <row r="223" ht="15.8" customHeight="1"/>
+    <row r="224" ht="15.8" customHeight="1"/>
+    <row r="225" ht="15.8" customHeight="1"/>
+    <row r="226" ht="15.8" customHeight="1"/>
+    <row r="227" ht="15.8" customHeight="1"/>
+    <row r="228" ht="15.8" customHeight="1"/>
+    <row r="229" ht="15.8" customHeight="1"/>
+    <row r="230" ht="15.8" customHeight="1"/>
+    <row r="231" ht="15.8" customHeight="1"/>
+    <row r="232" ht="15.8" customHeight="1"/>
+    <row r="233" ht="15.8" customHeight="1"/>
+    <row r="234" ht="15.8" customHeight="1"/>
+    <row r="235" ht="15.8" customHeight="1"/>
+    <row r="236" ht="15.8" customHeight="1"/>
+    <row r="237" ht="15.8" customHeight="1"/>
+    <row r="238" ht="15.8" customHeight="1"/>
+    <row r="239" ht="15.8" customHeight="1"/>
+    <row r="240" ht="15.8" customHeight="1"/>
+    <row r="241" ht="15.8" customHeight="1"/>
+    <row r="242" ht="15.8" customHeight="1"/>
+    <row r="243" ht="15.8" customHeight="1"/>
+    <row r="244" ht="15.8" customHeight="1"/>
+    <row r="245" ht="15.8" customHeight="1"/>
+    <row r="246" ht="15.8" customHeight="1"/>
+    <row r="247" ht="15.8" customHeight="1"/>
+    <row r="248" ht="15.8" customHeight="1"/>
+    <row r="249" ht="15.8" customHeight="1"/>
+    <row r="250" ht="15.8" customHeight="1"/>
+    <row r="251" ht="15.8" customHeight="1"/>
+    <row r="252" ht="15.8" customHeight="1"/>
+    <row r="253" ht="15.8" customHeight="1"/>
+    <row r="254" ht="15.8" customHeight="1"/>
+    <row r="255" ht="15.8" customHeight="1"/>
+    <row r="256" ht="15.8" customHeight="1"/>
+    <row r="257" ht="15.8" customHeight="1"/>
+    <row r="258" ht="15.8" customHeight="1"/>
+    <row r="259" ht="15.8" customHeight="1"/>
+    <row r="260" ht="15.8" customHeight="1"/>
+    <row r="261" ht="15.8" customHeight="1"/>
+    <row r="262" ht="15.8" customHeight="1"/>
+    <row r="263" ht="15.8" customHeight="1"/>
+    <row r="264" ht="15.8" customHeight="1"/>
+    <row r="265" ht="15.8" customHeight="1"/>
+    <row r="266" ht="15.8" customHeight="1"/>
+    <row r="267" ht="15.8" customHeight="1"/>
+    <row r="268" ht="15.8" customHeight="1"/>
+    <row r="269" ht="15.8" customHeight="1"/>
+    <row r="270" ht="15.8" customHeight="1"/>
+    <row r="271" ht="15.8" customHeight="1"/>
+    <row r="272" ht="15.8" customHeight="1"/>
+    <row r="273" ht="15.8" customHeight="1"/>
+    <row r="274" ht="15.8" customHeight="1"/>
+    <row r="275" ht="15.8" customHeight="1"/>
+    <row r="276" ht="15.8" customHeight="1"/>
+    <row r="277" ht="15.8" customHeight="1"/>
+    <row r="278" ht="15.8" customHeight="1"/>
+    <row r="279" ht="15.8" customHeight="1"/>
+    <row r="280" ht="15.8" customHeight="1"/>
+    <row r="281" ht="15.8" customHeight="1"/>
+    <row r="282" ht="15.8" customHeight="1"/>
+    <row r="283" ht="15.8" customHeight="1"/>
+    <row r="284" ht="15.8" customHeight="1"/>
+    <row r="285" ht="15.8" customHeight="1"/>
+    <row r="286" ht="15.8" customHeight="1"/>
+    <row r="287" ht="15.8" customHeight="1"/>
+    <row r="288" ht="15.8" customHeight="1"/>
+    <row r="289" ht="15.8" customHeight="1"/>
+    <row r="290" ht="15.8" customHeight="1"/>
+    <row r="291" ht="15.8" customHeight="1"/>
+    <row r="292" ht="15.8" customHeight="1"/>
+    <row r="293" ht="15.8" customHeight="1"/>
+    <row r="294" ht="15.8" customHeight="1"/>
+    <row r="295" ht="15.8" customHeight="1"/>
+    <row r="296" ht="15.8" customHeight="1"/>
+    <row r="297" ht="15.8" customHeight="1"/>
+    <row r="298" ht="15.8" customHeight="1"/>
+    <row r="299" ht="15.8" customHeight="1"/>
+    <row r="300" ht="15.8" customHeight="1"/>
+    <row r="301" ht="15.8" customHeight="1"/>
+    <row r="302" ht="15.8" customHeight="1"/>
+    <row r="303" ht="15.8" customHeight="1"/>
+    <row r="304" ht="15.8" customHeight="1"/>
+    <row r="305" ht="15.8" customHeight="1"/>
+    <row r="306" ht="15.8" customHeight="1"/>
+    <row r="307" ht="15.8" customHeight="1"/>
+    <row r="308" ht="15.8" customHeight="1"/>
+    <row r="309" ht="15.8" customHeight="1"/>
+    <row r="310" ht="15.8" customHeight="1"/>
+    <row r="311" ht="15.8" customHeight="1"/>
+    <row r="312" ht="15.8" customHeight="1"/>
+    <row r="313" ht="15.8" customHeight="1"/>
+    <row r="314" ht="15.8" customHeight="1"/>
+    <row r="315" ht="15.8" customHeight="1"/>
+    <row r="316" ht="15.8" customHeight="1"/>
+    <row r="317" ht="15.8" customHeight="1"/>
+    <row r="318" ht="15.8" customHeight="1"/>
+    <row r="319" ht="15.8" customHeight="1"/>
+    <row r="320" ht="15.8" customHeight="1"/>
+    <row r="321" ht="15.8" customHeight="1"/>
+    <row r="322" ht="15.8" customHeight="1"/>
+    <row r="323" ht="15.8" customHeight="1"/>
+    <row r="324" ht="15.8" customHeight="1"/>
+    <row r="325" ht="15.8" customHeight="1"/>
+    <row r="326" ht="15.8" customHeight="1"/>
+    <row r="327" ht="15.8" customHeight="1"/>
+    <row r="328" ht="15.8" customHeight="1"/>
+    <row r="329" ht="15.8" customHeight="1"/>
+    <row r="330" ht="15.8" customHeight="1"/>
+    <row r="331" ht="15.8" customHeight="1"/>
+    <row r="332" ht="15.8" customHeight="1"/>
+    <row r="333" ht="15.8" customHeight="1"/>
+    <row r="334" ht="15.8" customHeight="1"/>
+    <row r="335" ht="15.8" customHeight="1"/>
+    <row r="336" ht="15.8" customHeight="1"/>
+    <row r="337" ht="15.8" customHeight="1"/>
+    <row r="338" ht="15.8" customHeight="1"/>
+    <row r="339" ht="15.8" customHeight="1"/>
+    <row r="340" ht="15.8" customHeight="1"/>
+    <row r="341" ht="15.8" customHeight="1"/>
+    <row r="342" ht="15.8" customHeight="1"/>
+    <row r="343" ht="15.8" customHeight="1"/>
+    <row r="344" ht="15.8" customHeight="1"/>
+    <row r="345" ht="15.8" customHeight="1"/>
+    <row r="346" ht="15.8" customHeight="1"/>
+    <row r="347" ht="15.8" customHeight="1"/>
+    <row r="348" ht="15.8" customHeight="1"/>
+    <row r="349" ht="15.8" customHeight="1"/>
+    <row r="350" ht="15.8" customHeight="1"/>
+    <row r="351" ht="15.8" customHeight="1"/>
+    <row r="352" ht="15.8" customHeight="1"/>
+    <row r="353" ht="15.8" customHeight="1"/>
+    <row r="354" ht="15.8" customHeight="1"/>
+    <row r="355" ht="15.8" customHeight="1"/>
+    <row r="356" ht="15.8" customHeight="1"/>
+    <row r="357" ht="15.8" customHeight="1"/>
+    <row r="358" ht="15.8" customHeight="1"/>
+    <row r="359" ht="15.8" customHeight="1"/>
+    <row r="360" ht="15.8" customHeight="1"/>
+    <row r="361" ht="15.8" customHeight="1"/>
+    <row r="362" ht="15.8" customHeight="1"/>
+    <row r="363" ht="15.8" customHeight="1"/>
+    <row r="364" ht="15.8" customHeight="1"/>
+    <row r="365" ht="15.8" customHeight="1"/>
+    <row r="366" ht="15.8" customHeight="1"/>
+    <row r="367" ht="15.8" customHeight="1"/>
+    <row r="368" ht="15.8" customHeight="1"/>
+    <row r="369" ht="15.8" customHeight="1"/>
+    <row r="370" ht="15.8" customHeight="1"/>
+    <row r="371" ht="15.8" customHeight="1"/>
+    <row r="372" ht="15.8" customHeight="1"/>
+    <row r="373" ht="15.8" customHeight="1"/>
+    <row r="374" ht="15.8" customHeight="1"/>
+    <row r="375" ht="15.8" customHeight="1"/>
+    <row r="376" ht="15.8" customHeight="1"/>
+    <row r="377" ht="15.8" customHeight="1"/>
+    <row r="378" ht="15.8" customHeight="1"/>
+    <row r="379" ht="15.8" customHeight="1"/>
+    <row r="380" ht="15.8" customHeight="1"/>
+    <row r="381" ht="15.8" customHeight="1"/>
+    <row r="382" ht="15.8" customHeight="1"/>
+    <row r="383" ht="15.8" customHeight="1"/>
+    <row r="384" ht="15.8" customHeight="1"/>
+    <row r="385" ht="15.8" customHeight="1"/>
+    <row r="386" ht="15.8" customHeight="1"/>
+    <row r="387" ht="15.8" customHeight="1"/>
+    <row r="388" ht="15.8" customHeight="1"/>
+    <row r="389" ht="15.8" customHeight="1"/>
+    <row r="390" ht="15.8" customHeight="1"/>
+    <row r="391" ht="15.8" customHeight="1"/>
+    <row r="392" ht="15.8" customHeight="1"/>
+    <row r="393" ht="15.8" customHeight="1"/>
+    <row r="394" ht="15.8" customHeight="1"/>
+    <row r="395" ht="15.8" customHeight="1"/>
+    <row r="396" ht="15.8" customHeight="1"/>
+    <row r="397" ht="15.8" customHeight="1"/>
+    <row r="398" ht="15.8" customHeight="1"/>
+    <row r="399" ht="15.8" customHeight="1"/>
+    <row r="400" ht="15.8" customHeight="1"/>
+    <row r="401" ht="15.8" customHeight="1"/>
+    <row r="402" ht="15.8" customHeight="1"/>
+    <row r="403" ht="15.8" customHeight="1"/>
+    <row r="404" ht="15.8" customHeight="1"/>
+    <row r="405" ht="15.8" customHeight="1"/>
+    <row r="406" ht="15.8" customHeight="1"/>
+    <row r="407" ht="15.8" customHeight="1"/>
+    <row r="408" ht="15.8" customHeight="1"/>
+    <row r="409" ht="15.8" customHeight="1"/>
+    <row r="410" ht="15.8" customHeight="1"/>
+    <row r="411" ht="15.8" customHeight="1"/>
+    <row r="412" ht="15.8" customHeight="1"/>
+    <row r="413" ht="15.8" customHeight="1"/>
+    <row r="414" ht="15.8" customHeight="1"/>
+    <row r="415" ht="15.8" customHeight="1"/>
+    <row r="416" ht="15.8" customHeight="1"/>
+    <row r="417" ht="15.8" customHeight="1"/>
+    <row r="418" ht="15.8" customHeight="1"/>
+    <row r="419" ht="15.8" customHeight="1"/>
+    <row r="420" ht="15.8" customHeight="1"/>
+    <row r="421" ht="15.8" customHeight="1"/>
+    <row r="422" ht="15.8" customHeight="1"/>
+    <row r="423" ht="15.8" customHeight="1"/>
+    <row r="424" ht="15.8" customHeight="1"/>
+    <row r="425" ht="15.8" customHeight="1"/>
+    <row r="426" ht="15.8" customHeight="1"/>
+    <row r="427" ht="15.8" customHeight="1"/>
+    <row r="428" ht="15.8" customHeight="1"/>
+    <row r="429" ht="15.8" customHeight="1"/>
+    <row r="430" ht="15.8" customHeight="1"/>
+    <row r="431" ht="15.8" customHeight="1"/>
+    <row r="432" ht="15.8" customHeight="1"/>
+    <row r="433" ht="15.8" customHeight="1"/>
+    <row r="434" ht="15.8" customHeight="1"/>
+    <row r="435" ht="15.8" customHeight="1"/>
+    <row r="436" ht="15.8" customHeight="1"/>
+    <row r="437" ht="15.8" customHeight="1"/>
+    <row r="438" ht="15.8" customHeight="1"/>
+    <row r="439" ht="15.8" customHeight="1"/>
+    <row r="440" ht="15.8" customHeight="1"/>
+    <row r="441" ht="15.8" customHeight="1"/>
+    <row r="442" ht="15.8" customHeight="1"/>
+    <row r="443" ht="15.8" customHeight="1"/>
+    <row r="444" ht="15.8" customHeight="1"/>
+    <row r="445" ht="15.8" customHeight="1"/>
+    <row r="446" ht="15.8" customHeight="1"/>
+    <row r="447" ht="15.8" customHeight="1"/>
+    <row r="448" ht="15.8" customHeight="1"/>
+    <row r="449" ht="15.8" customHeight="1"/>
+    <row r="450" ht="15.8" customHeight="1"/>
+    <row r="451" ht="15.8" customHeight="1"/>
+    <row r="452" ht="15.8" customHeight="1"/>
+    <row r="453" ht="15.8" customHeight="1"/>
+    <row r="454" ht="15.8" customHeight="1"/>
+    <row r="455" ht="15.8" customHeight="1"/>
+    <row r="456" ht="15.8" customHeight="1"/>
+    <row r="457" ht="15.8" customHeight="1"/>
+    <row r="458" ht="15.8" customHeight="1"/>
+    <row r="459" ht="15.8" customHeight="1"/>
+    <row r="460" ht="15.8" customHeight="1"/>
+    <row r="461" ht="15.8" customHeight="1"/>
+    <row r="462" ht="15.8" customHeight="1"/>
+    <row r="463" ht="15.8" customHeight="1"/>
+    <row r="464" ht="15.8" customHeight="1"/>
+    <row r="465" ht="15.8" customHeight="1"/>
+    <row r="466" ht="15.8" customHeight="1"/>
+    <row r="467" ht="15.8" customHeight="1"/>
+    <row r="468" ht="15.8" customHeight="1"/>
+    <row r="469" ht="15.8" customHeight="1"/>
+    <row r="470" ht="15.8" customHeight="1"/>
+    <row r="471" ht="15.8" customHeight="1"/>
+    <row r="472" ht="15.8" customHeight="1"/>
+    <row r="473" ht="15.8" customHeight="1"/>
+    <row r="474" ht="15.8" customHeight="1"/>
+    <row r="475" ht="15.8" customHeight="1"/>
+    <row r="476" ht="15.8" customHeight="1"/>
+    <row r="477" ht="15.8" customHeight="1"/>
+    <row r="478" ht="15.8" customHeight="1"/>
+    <row r="479" ht="15.8" customHeight="1"/>
+    <row r="480" ht="15.8" customHeight="1"/>
+    <row r="481" ht="15.8" customHeight="1"/>
+    <row r="482" ht="15.8" customHeight="1"/>
+    <row r="483" ht="15.8" customHeight="1"/>
+    <row r="484" ht="15.8" customHeight="1"/>
+    <row r="485" ht="15.8" customHeight="1"/>
+    <row r="486" ht="15.8" customHeight="1"/>
+    <row r="487" ht="15.8" customHeight="1"/>
+    <row r="488" ht="15.8" customHeight="1"/>
+    <row r="489" ht="15.8" customHeight="1"/>
+    <row r="490" ht="15.8" customHeight="1"/>
+    <row r="491" ht="15.8" customHeight="1"/>
+    <row r="492" ht="15.8" customHeight="1"/>
+    <row r="493" ht="15.8" customHeight="1"/>
+    <row r="494" ht="15.8" customHeight="1"/>
+    <row r="495" ht="15.8" customHeight="1"/>
+    <row r="496" ht="15.8" customHeight="1"/>
+    <row r="497" ht="15.8" customHeight="1"/>
+    <row r="498" ht="15.8" customHeight="1"/>
+    <row r="499" ht="15.8" customHeight="1"/>
+    <row r="500" ht="15.8" customHeight="1"/>
+    <row r="501" ht="15.8" customHeight="1"/>
+    <row r="502" ht="15.8" customHeight="1"/>
+    <row r="503" ht="15.8" customHeight="1"/>
+    <row r="504" ht="15.8" customHeight="1"/>
+    <row r="505" ht="15.8" customHeight="1"/>
+    <row r="506" ht="15.8" customHeight="1"/>
+    <row r="507" ht="15.8" customHeight="1"/>
+    <row r="508" ht="15.8" customHeight="1"/>
+    <row r="509" ht="15.8" customHeight="1"/>
+    <row r="510" ht="15.8" customHeight="1"/>
+    <row r="511" ht="15.8" customHeight="1"/>
+    <row r="512" ht="15.8" customHeight="1"/>
+    <row r="513" ht="15.8" customHeight="1"/>
+    <row r="514" ht="15.8" customHeight="1"/>
+    <row r="515" ht="15.8" customHeight="1"/>
+    <row r="516" ht="15.8" customHeight="1"/>
+    <row r="517" ht="15.8" customHeight="1"/>
+    <row r="518" ht="15.8" customHeight="1"/>
+    <row r="519" ht="15.8" customHeight="1"/>
+    <row r="520" ht="15.8" customHeight="1"/>
+    <row r="521" ht="15.8" customHeight="1"/>
+    <row r="522" ht="15.8" customHeight="1"/>
+    <row r="523" ht="15.8" customHeight="1"/>
+    <row r="524" ht="15.8" customHeight="1"/>
+    <row r="525" ht="15.8" customHeight="1"/>
+    <row r="526" ht="15.8" customHeight="1"/>
+    <row r="527" ht="15.8" customHeight="1"/>
+    <row r="528" ht="15.8" customHeight="1"/>
+    <row r="529" ht="15.8" customHeight="1"/>
+    <row r="530" ht="15.8" customHeight="1"/>
+    <row r="531" ht="15.8" customHeight="1"/>
+    <row r="532" ht="15.8" customHeight="1"/>
+    <row r="533" ht="15.8" customHeight="1"/>
+    <row r="534" ht="15.8" customHeight="1"/>
+    <row r="535" ht="15.8" customHeight="1"/>
+    <row r="536" ht="15.8" customHeight="1"/>
+    <row r="537" ht="15.8" customHeight="1"/>
+    <row r="538" ht="15.8" customHeight="1"/>
+    <row r="539" ht="15.8" customHeight="1"/>
+    <row r="540" ht="15.8" customHeight="1"/>
+    <row r="541" ht="15.8" customHeight="1"/>
+    <row r="542" ht="15.8" customHeight="1"/>
+    <row r="543" ht="15.8" customHeight="1"/>
+    <row r="544" ht="15.8" customHeight="1"/>
+    <row r="545" ht="15.8" customHeight="1"/>
+    <row r="546" ht="15.8" customHeight="1"/>
+    <row r="547" ht="15.8" customHeight="1"/>
+    <row r="548" ht="15.8" customHeight="1"/>
+    <row r="549" ht="15.8" customHeight="1"/>
+    <row r="550" ht="15.8" customHeight="1"/>
+    <row r="551" ht="15.8" customHeight="1"/>
+    <row r="552" ht="15.8" customHeight="1"/>
+    <row r="553" ht="15.8" customHeight="1"/>
+    <row r="554" ht="15.8" customHeight="1"/>
+    <row r="555" ht="15.8" customHeight="1"/>
+    <row r="556" ht="15.8" customHeight="1"/>
+    <row r="557" ht="15.8" customHeight="1"/>
+    <row r="558" ht="15.8" customHeight="1"/>
+    <row r="559" ht="15.8" customHeight="1"/>
+    <row r="560" ht="15.8" customHeight="1"/>
+    <row r="561" ht="15.8" customHeight="1"/>
+    <row r="562" ht="15.8" customHeight="1"/>
+    <row r="563" ht="15.8" customHeight="1"/>
+    <row r="564" ht="15.8" customHeight="1"/>
+    <row r="565" ht="15.8" customHeight="1"/>
+    <row r="566" ht="15.8" customHeight="1"/>
+    <row r="567" ht="15.8" customHeight="1"/>
+    <row r="568" ht="15.8" customHeight="1"/>
+    <row r="569" ht="15.8" customHeight="1"/>
+    <row r="570" ht="15.8" customHeight="1"/>
+    <row r="571" ht="15.8" customHeight="1"/>
+    <row r="572" ht="15.8" customHeight="1"/>
+    <row r="573" ht="15.8" customHeight="1"/>
+    <row r="574" ht="15.8" customHeight="1"/>
+    <row r="575" ht="15.8" customHeight="1"/>
+    <row r="576" ht="15.8" customHeight="1"/>
+    <row r="577" ht="15.8" customHeight="1"/>
+    <row r="578" ht="15.8" customHeight="1"/>
+    <row r="579" ht="15.8" customHeight="1"/>
+    <row r="580" ht="15.8" customHeight="1"/>
+    <row r="581" ht="15.8" customHeight="1"/>
+    <row r="582" ht="15.8" customHeight="1"/>
+    <row r="583" ht="15.8" customHeight="1"/>
+    <row r="584" ht="15.8" customHeight="1"/>
+    <row r="585" ht="15.8" customHeight="1"/>
+    <row r="586" ht="15.8" customHeight="1"/>
+    <row r="587" ht="15.8" customHeight="1"/>
+    <row r="588" ht="15.8" customHeight="1"/>
+    <row r="589" ht="15.8" customHeight="1"/>
+    <row r="590" ht="15.8" customHeight="1"/>
+    <row r="591" ht="15.8" customHeight="1"/>
+    <row r="592" ht="15.8" customHeight="1"/>
+    <row r="593" ht="15.8" customHeight="1"/>
+    <row r="594" ht="15.8" customHeight="1"/>
+    <row r="595" ht="15.8" customHeight="1"/>
+    <row r="596" ht="15.8" customHeight="1"/>
+    <row r="597" ht="15.8" customHeight="1"/>
+    <row r="598" ht="15.8" customHeight="1"/>
+    <row r="599" ht="15.8" customHeight="1"/>
+    <row r="600" ht="15.8" customHeight="1"/>
+    <row r="601" ht="15.8" customHeight="1"/>
+    <row r="602" ht="15.8" customHeight="1"/>
+    <row r="603" ht="15.8" customHeight="1"/>
+    <row r="604" ht="15.8" customHeight="1"/>
+    <row r="605" ht="15.8" customHeight="1"/>
+    <row r="606" ht="15.8" customHeight="1"/>
+    <row r="607" ht="15.8" customHeight="1"/>
+    <row r="608" ht="15.8" customHeight="1"/>
+    <row r="609" ht="15.8" customHeight="1"/>
+    <row r="610" ht="15.8" customHeight="1"/>
+    <row r="611" ht="15.8" customHeight="1"/>
+    <row r="612" ht="15.8" customHeight="1"/>
+    <row r="613" ht="15.8" customHeight="1"/>
+    <row r="614" ht="15.8" customHeight="1"/>
+    <row r="615" ht="15.8" customHeight="1"/>
+    <row r="616" ht="15.8" customHeight="1"/>
+    <row r="617" ht="15.8" customHeight="1"/>
+    <row r="618" ht="15.8" customHeight="1"/>
+    <row r="619" ht="15.8" customHeight="1"/>
+    <row r="620" ht="15.8" customHeight="1"/>
+    <row r="621" ht="15.8" customHeight="1"/>
+    <row r="622" ht="15.8" customHeight="1"/>
+    <row r="623" ht="15.8" customHeight="1"/>
+    <row r="624" ht="15.8" customHeight="1"/>
+    <row r="625" ht="15.8" customHeight="1"/>
+    <row r="626" ht="15.8" customHeight="1"/>
+    <row r="627" ht="15.8" customHeight="1"/>
+    <row r="628" ht="15.8" customHeight="1"/>
+    <row r="629" ht="15.8" customHeight="1"/>
+    <row r="630" ht="15.8" customHeight="1"/>
+    <row r="631" ht="15.8" customHeight="1"/>
+    <row r="632" ht="15.8" customHeight="1"/>
+    <row r="633" ht="15.8" customHeight="1"/>
+    <row r="634" ht="15.8" customHeight="1"/>
+    <row r="635" ht="15.8" customHeight="1"/>
+    <row r="636" ht="15.8" customHeight="1"/>
+    <row r="637" ht="15.8" customHeight="1"/>
+    <row r="638" ht="15.8" customHeight="1"/>
+    <row r="639" ht="15.8" customHeight="1"/>
+    <row r="640" ht="15.8" customHeight="1"/>
+    <row r="641" ht="15.8" customHeight="1"/>
+    <row r="642" ht="15.8" customHeight="1"/>
+    <row r="643" ht="15.8" customHeight="1"/>
+    <row r="644" ht="15.8" customHeight="1"/>
+    <row r="645" ht="15.8" customHeight="1"/>
+    <row r="646" ht="15.8" customHeight="1"/>
+    <row r="647" ht="15.8" customHeight="1"/>
+    <row r="648" ht="15.8" customHeight="1"/>
+    <row r="649" ht="15.8" customHeight="1"/>
+    <row r="650" ht="15.8" customHeight="1"/>
+    <row r="651" ht="15.8" customHeight="1"/>
+    <row r="652" ht="15.8" customHeight="1"/>
+    <row r="653" ht="15.8" customHeight="1"/>
+    <row r="654" ht="15.8" customHeight="1"/>
+    <row r="655" ht="15.8" customHeight="1"/>
+    <row r="656" ht="15.8" customHeight="1"/>
+    <row r="657" ht="15.8" customHeight="1"/>
+    <row r="658" ht="15.8" customHeight="1"/>
+    <row r="659" ht="15.8" customHeight="1"/>
+    <row r="660" ht="15.8" customHeight="1"/>
+    <row r="661" ht="15.8" customHeight="1"/>
+    <row r="662" ht="15.8" customHeight="1"/>
+    <row r="663" ht="15.8" customHeight="1"/>
+    <row r="664" ht="15.8" customHeight="1"/>
+    <row r="665" ht="15.8" customHeight="1"/>
+    <row r="666" ht="15.8" customHeight="1"/>
+    <row r="667" ht="15.8" customHeight="1"/>
+    <row r="668" ht="15.8" customHeight="1"/>
+    <row r="669" ht="15.8" customHeight="1"/>
+    <row r="670" ht="15.8" customHeight="1"/>
+    <row r="671" ht="15.8" customHeight="1"/>
+    <row r="672" ht="15.8" customHeight="1"/>
+    <row r="673" ht="15.8" customHeight="1"/>
+    <row r="674" ht="15.8" customHeight="1"/>
+    <row r="675" ht="15.8" customHeight="1"/>
+    <row r="676" ht="15.8" customHeight="1"/>
+    <row r="677" ht="15.8" customHeight="1"/>
+    <row r="678" ht="15.8" customHeight="1"/>
+    <row r="679" ht="15.8" customHeight="1"/>
+    <row r="680" ht="15.8" customHeight="1"/>
+    <row r="681" ht="15.8" customHeight="1"/>
+    <row r="682" ht="15.8" customHeight="1"/>
+    <row r="683" ht="15.8" customHeight="1"/>
+    <row r="684" ht="15.8" customHeight="1"/>
+    <row r="685" ht="15.8" customHeight="1"/>
+    <row r="686" ht="15.8" customHeight="1"/>
+    <row r="687" ht="15.8" customHeight="1"/>
+    <row r="688" ht="15.8" customHeight="1"/>
+    <row r="689" ht="15.8" customHeight="1"/>
+    <row r="690" ht="15.8" customHeight="1"/>
+    <row r="691" ht="15.8" customHeight="1"/>
+    <row r="692" ht="15.8" customHeight="1"/>
+    <row r="693" ht="15.8" customHeight="1"/>
+    <row r="694" ht="15.8" customHeight="1"/>
+    <row r="695" ht="15.8" customHeight="1"/>
+    <row r="696" ht="15.8" customHeight="1"/>
+    <row r="697" ht="15.8" customHeight="1"/>
+    <row r="698" ht="15.8" customHeight="1"/>
+    <row r="699" ht="15.8" customHeight="1"/>
+    <row r="700" ht="15.8" customHeight="1"/>
+    <row r="701" ht="15.8" customHeight="1"/>
+    <row r="702" ht="15.8" customHeight="1"/>
+    <row r="703" ht="15.8" customHeight="1"/>
+    <row r="704" ht="15.8" customHeight="1"/>
+    <row r="705" ht="15.8" customHeight="1"/>
+    <row r="706" ht="15.8" customHeight="1"/>
+    <row r="707" ht="15.8" customHeight="1"/>
+    <row r="708" ht="15.8" customHeight="1"/>
+    <row r="709" ht="15.8" customHeight="1"/>
+    <row r="710" ht="15.8" customHeight="1"/>
+    <row r="711" ht="15.8" customHeight="1"/>
+    <row r="712" ht="15.8" customHeight="1"/>
+    <row r="713" ht="15.8" customHeight="1"/>
+    <row r="714" ht="15.8" customHeight="1"/>
+    <row r="715" ht="15.8" customHeight="1"/>
+    <row r="716" ht="15.8" customHeight="1"/>
+    <row r="717" ht="15.8" customHeight="1"/>
+    <row r="718" ht="15.8" customHeight="1"/>
+    <row r="719" ht="15.8" customHeight="1"/>
+    <row r="720" ht="15.8" customHeight="1"/>
+    <row r="721" ht="15.8" customHeight="1"/>
+    <row r="722" ht="15.8" customHeight="1"/>
+    <row r="723" ht="15.8" customHeight="1"/>
+    <row r="724" ht="15.8" customHeight="1"/>
+    <row r="725" ht="15.8" customHeight="1"/>
+    <row r="726" ht="15.8" customHeight="1"/>
+    <row r="727" ht="15.8" customHeight="1"/>
+    <row r="728" ht="15.8" customHeight="1"/>
+    <row r="729" ht="15.8" customHeight="1"/>
+    <row r="730" ht="15.8" customHeight="1"/>
+    <row r="731" ht="15.8" customHeight="1"/>
+    <row r="732" ht="15.8" customHeight="1"/>
+    <row r="733" ht="15.8" customHeight="1"/>
+    <row r="734" ht="15.8" customHeight="1"/>
+    <row r="735" ht="15.8" customHeight="1"/>
+    <row r="736" ht="15.8" customHeight="1"/>
+    <row r="737" ht="15.8" customHeight="1"/>
+    <row r="738" ht="15.8" customHeight="1"/>
+    <row r="739" ht="15.8" customHeight="1"/>
+    <row r="740" ht="15.8" customHeight="1"/>
+    <row r="741" ht="15.8" customHeight="1"/>
+    <row r="742" ht="15.8" customHeight="1"/>
+    <row r="743" ht="15.8" customHeight="1"/>
+    <row r="744" ht="15.8" customHeight="1"/>
+    <row r="745" ht="15.8" customHeight="1"/>
+    <row r="746" ht="15.8" customHeight="1"/>
+    <row r="747" ht="15.8" customHeight="1"/>
+    <row r="748" ht="15.8" customHeight="1"/>
+    <row r="749" ht="15.8" customHeight="1"/>
+    <row r="750" ht="15.8" customHeight="1"/>
+    <row r="751" ht="15.8" customHeight="1"/>
+    <row r="752" ht="15.8" customHeight="1"/>
+    <row r="753" ht="15.8" customHeight="1"/>
+    <row r="754" ht="15.8" customHeight="1"/>
+    <row r="755" ht="15.8" customHeight="1"/>
+    <row r="756" ht="15.8" customHeight="1"/>
+    <row r="757" ht="15.8" customHeight="1"/>
+    <row r="758" ht="15.8" customHeight="1"/>
+    <row r="759" ht="15.8" customHeight="1"/>
+    <row r="760" ht="15.8" customHeight="1"/>
+    <row r="761" ht="15.8" customHeight="1"/>
+    <row r="762" ht="15.8" customHeight="1"/>
+    <row r="763" ht="15.8" customHeight="1"/>
+    <row r="764" ht="15.8" customHeight="1"/>
+    <row r="765" ht="15.8" customHeight="1"/>
+    <row r="766" ht="15.8" customHeight="1"/>
+    <row r="767" ht="15.8" customHeight="1"/>
+    <row r="768" ht="15.8" customHeight="1"/>
+    <row r="769" ht="15.8" customHeight="1"/>
+    <row r="770" ht="15.8" customHeight="1"/>
+    <row r="771" ht="15.8" customHeight="1"/>
+    <row r="772" ht="15.8" customHeight="1"/>
+    <row r="773" ht="15.8" customHeight="1"/>
+    <row r="774" ht="15.8" customHeight="1"/>
+    <row r="775" ht="15.8" customHeight="1"/>
+    <row r="776" ht="15.8" customHeight="1"/>
+    <row r="777" ht="15.8" customHeight="1"/>
+    <row r="778" ht="15.8" customHeight="1"/>
+    <row r="779" ht="15.8" customHeight="1"/>
+    <row r="780" ht="15.8" customHeight="1"/>
+    <row r="781" ht="15.8" customHeight="1"/>
+    <row r="782" ht="15.8" customHeight="1"/>
+    <row r="783" ht="15.8" customHeight="1"/>
+    <row r="784" ht="15.8" customHeight="1"/>
+    <row r="785" ht="15.8" customHeight="1"/>
+    <row r="786" ht="15.8" customHeight="1"/>
+    <row r="787" ht="15.8" customHeight="1"/>
+    <row r="788" ht="15.8" customHeight="1"/>
+    <row r="789" ht="15.8" customHeight="1"/>
+    <row r="790" ht="15.8" customHeight="1"/>
+    <row r="791" ht="15.8" customHeight="1"/>
+    <row r="792" ht="15.8" customHeight="1"/>
+    <row r="793" ht="15.8" customHeight="1"/>
+    <row r="794" ht="15.8" customHeight="1"/>
+    <row r="795" ht="15.8" customHeight="1"/>
+    <row r="796" ht="15.8" customHeight="1"/>
+    <row r="797" ht="15.8" customHeight="1"/>
+    <row r="798" ht="15.8" customHeight="1"/>
+    <row r="799" ht="15.8" customHeight="1"/>
+    <row r="800" ht="15.8" customHeight="1"/>
+    <row r="801" ht="15.8" customHeight="1"/>
+    <row r="802" ht="15.8" customHeight="1"/>
+    <row r="803" ht="15.8" customHeight="1"/>
+    <row r="804" ht="15.8" customHeight="1"/>
+    <row r="805" ht="15.8" customHeight="1"/>
+    <row r="806" ht="15.8" customHeight="1"/>
+    <row r="807" ht="15.8" customHeight="1"/>
+    <row r="808" ht="15.8" customHeight="1"/>
+    <row r="809" ht="15.8" customHeight="1"/>
+    <row r="810" ht="15.8" customHeight="1"/>
+    <row r="811" ht="15.8" customHeight="1"/>
+    <row r="812" ht="15.8" customHeight="1"/>
+    <row r="813" ht="15.8" customHeight="1"/>
+    <row r="814" ht="15.8" customHeight="1"/>
+    <row r="815" ht="15.8" customHeight="1"/>
+    <row r="816" ht="15.8" customHeight="1"/>
+    <row r="817" ht="15.8" customHeight="1"/>
+    <row r="818" ht="15.8" customHeight="1"/>
+    <row r="819" ht="15.8" customHeight="1"/>
+    <row r="820" ht="15.8" customHeight="1"/>
+    <row r="821" ht="15.8" customHeight="1"/>
+    <row r="822" ht="15.8" customHeight="1"/>
+    <row r="823" ht="15.8" customHeight="1"/>
+    <row r="824" ht="15.8" customHeight="1"/>
+    <row r="825" ht="15.8" customHeight="1"/>
+    <row r="826" ht="15.8" customHeight="1"/>
+    <row r="827" ht="15.8" customHeight="1"/>
+    <row r="828" ht="15.8" customHeight="1"/>
+    <row r="829" ht="15.8" customHeight="1"/>
+    <row r="830" ht="15.8" customHeight="1"/>
+    <row r="831" ht="15.8" customHeight="1"/>
+    <row r="832" ht="15.8" customHeight="1"/>
+    <row r="833" ht="15.8" customHeight="1"/>
+    <row r="834" ht="15.8" customHeight="1"/>
+    <row r="835" ht="15.8" customHeight="1"/>
+    <row r="836" ht="15.8" customHeight="1"/>
+    <row r="837" ht="15.8" customHeight="1"/>
+    <row r="838" ht="15.8" customHeight="1"/>
+    <row r="839" ht="15.8" customHeight="1"/>
+    <row r="840" ht="15.8" customHeight="1"/>
+    <row r="841" ht="15.8" customHeight="1"/>
+    <row r="842" ht="15.8" customHeight="1"/>
+    <row r="843" ht="15.8" customHeight="1"/>
+    <row r="844" ht="15.8" customHeight="1"/>
+    <row r="845" ht="15.8" customHeight="1"/>
+    <row r="846" ht="15.8" customHeight="1"/>
+    <row r="847" ht="15.8" customHeight="1"/>
+    <row r="848" ht="15.8" customHeight="1"/>
+    <row r="849" ht="15.8" customHeight="1"/>
+    <row r="850" ht="15.8" customHeight="1"/>
+    <row r="851" ht="15.8" customHeight="1"/>
+    <row r="852" ht="15.8" customHeight="1"/>
+    <row r="853" ht="15.8" customHeight="1"/>
+    <row r="854" ht="15.8" customHeight="1"/>
+    <row r="855" ht="15.8" customHeight="1"/>
+    <row r="856" ht="15.8" customHeight="1"/>
+    <row r="857" ht="15.8" customHeight="1"/>
+    <row r="858" ht="15.8" customHeight="1"/>
+    <row r="859" ht="15.8" customHeight="1"/>
+    <row r="860" ht="15.8" customHeight="1"/>
+    <row r="861" ht="15.8" customHeight="1"/>
+    <row r="862" ht="15.8" customHeight="1"/>
+    <row r="863" ht="15.8" customHeight="1"/>
+    <row r="864" ht="15.8" customHeight="1"/>
+    <row r="865" ht="15.8" customHeight="1"/>
+    <row r="866" ht="15.8" customHeight="1"/>
+    <row r="867" ht="15.8" customHeight="1"/>
+    <row r="868" ht="15.8" customHeight="1"/>
+    <row r="869" ht="15.8" customHeight="1"/>
+    <row r="870" ht="15.8" customHeight="1"/>
+    <row r="871" ht="15.8" customHeight="1"/>
+    <row r="872" ht="15.8" customHeight="1"/>
+    <row r="873" ht="15.8" customHeight="1"/>
+    <row r="874" ht="15.8" customHeight="1"/>
+    <row r="875" ht="15.8" customHeight="1"/>
+    <row r="876" ht="15.8" customHeight="1"/>
+    <row r="877" ht="15.8" customHeight="1"/>
+    <row r="878" ht="15.8" customHeight="1"/>
+    <row r="879" ht="15.8" customHeight="1"/>
+    <row r="880" ht="15.8" customHeight="1"/>
+    <row r="881" ht="15.8" customHeight="1"/>
+    <row r="882" ht="15.8" customHeight="1"/>
+    <row r="883" ht="15.8" customHeight="1"/>
+    <row r="884" ht="15.8" customHeight="1"/>
+    <row r="885" ht="15.8" customHeight="1"/>
+    <row r="886" ht="15.8" customHeight="1"/>
+    <row r="887" ht="15.8" customHeight="1"/>
+    <row r="888" ht="15.8" customHeight="1"/>
+    <row r="889" ht="15.8" customHeight="1"/>
+    <row r="890" ht="15.8" customHeight="1"/>
+    <row r="891" ht="15.8" customHeight="1"/>
+    <row r="892" ht="15.8" customHeight="1"/>
+    <row r="893" ht="15.8" customHeight="1"/>
+    <row r="894" ht="15.8" customHeight="1"/>
+    <row r="895" ht="15.8" customHeight="1"/>
+    <row r="896" ht="15.8" customHeight="1"/>
+    <row r="897" ht="15.8" customHeight="1"/>
+    <row r="898" ht="15.8" customHeight="1"/>
+    <row r="899" ht="15.8" customHeight="1"/>
+    <row r="900" ht="15.8" customHeight="1"/>
+    <row r="901" ht="15.8" customHeight="1"/>
+    <row r="902" ht="15.8" customHeight="1"/>
+    <row r="903" ht="15.8" customHeight="1"/>
+    <row r="904" ht="15.8" customHeight="1"/>
+    <row r="905" ht="15.8" customHeight="1"/>
+    <row r="906" ht="15.8" customHeight="1"/>
+    <row r="907" ht="15.8" customHeight="1"/>
+    <row r="908" ht="15.8" customHeight="1"/>
+    <row r="909" ht="15.8" customHeight="1"/>
+    <row r="910" ht="15.8" customHeight="1"/>
+    <row r="911" ht="15.8" customHeight="1"/>
+    <row r="912" ht="15.8" customHeight="1"/>
+    <row r="913" ht="15.8" customHeight="1"/>
+    <row r="914" ht="15.8" customHeight="1"/>
+    <row r="915" ht="15.8" customHeight="1"/>
+    <row r="916" ht="15.8" customHeight="1"/>
+    <row r="917" ht="15.8" customHeight="1"/>
+    <row r="918" ht="15.8" customHeight="1"/>
+    <row r="919" ht="15.8" customHeight="1"/>
+    <row r="920" ht="15.8" customHeight="1"/>
+    <row r="921" ht="15.8" customHeight="1"/>
+    <row r="922" ht="15.8" customHeight="1"/>
+    <row r="923" ht="15.8" customHeight="1"/>
+    <row r="924" ht="15.8" customHeight="1"/>
+    <row r="925" ht="15.8" customHeight="1"/>
+    <row r="926" ht="15.8" customHeight="1"/>
+    <row r="927" ht="15.8" customHeight="1"/>
+    <row r="928" ht="15.8" customHeight="1"/>
+    <row r="929" ht="15.8" customHeight="1"/>
+    <row r="930" ht="15.8" customHeight="1"/>
+    <row r="931" ht="15.8" customHeight="1"/>
+    <row r="932" ht="15.8" customHeight="1"/>
+    <row r="933" ht="15.8" customHeight="1"/>
+    <row r="934" ht="15.8" customHeight="1"/>
+    <row r="935" ht="15.8" customHeight="1"/>
+    <row r="936" ht="15.8" customHeight="1"/>
+    <row r="937" ht="15.8" customHeight="1"/>
+    <row r="938" ht="15.8" customHeight="1"/>
+    <row r="939" ht="15.8" customHeight="1"/>
+    <row r="940" ht="15.8" customHeight="1"/>
+    <row r="941" ht="15.8" customHeight="1"/>
+    <row r="942" ht="15.8" customHeight="1"/>
+    <row r="943" ht="15.8" customHeight="1"/>
+    <row r="944" ht="15.8" customHeight="1"/>
+    <row r="945" ht="15.8" customHeight="1"/>
+    <row r="946" ht="15.8" customHeight="1"/>
+    <row r="947" ht="15.8" customHeight="1"/>
+    <row r="948" ht="15.8" customHeight="1"/>
+    <row r="949" ht="15.8" customHeight="1"/>
+    <row r="950" ht="15.8" customHeight="1"/>
+    <row r="951" ht="15.8" customHeight="1"/>
+    <row r="952" ht="15.8" customHeight="1"/>
+    <row r="953" ht="15.8" customHeight="1"/>
+    <row r="954" ht="15.8" customHeight="1"/>
+    <row r="955" ht="15.8" customHeight="1"/>
+    <row r="956" ht="15.8" customHeight="1"/>
+    <row r="957" ht="15.8" customHeight="1"/>
+    <row r="958" ht="15.8" customHeight="1"/>
+    <row r="959" ht="15.8" customHeight="1"/>
+    <row r="960" ht="15.8" customHeight="1"/>
+    <row r="961" ht="15.8" customHeight="1"/>
+    <row r="962" ht="15.8" customHeight="1"/>
+    <row r="963" ht="15.8" customHeight="1"/>
+    <row r="964" ht="15.8" customHeight="1"/>
+    <row r="965" ht="15.8" customHeight="1"/>
+    <row r="966" ht="15.8" customHeight="1"/>
+    <row r="967" ht="15.8" customHeight="1"/>
+    <row r="968" ht="15.8" customHeight="1"/>
+    <row r="969" ht="15.8" customHeight="1"/>
+    <row r="970" ht="15.8" customHeight="1"/>
+    <row r="971" ht="15.8" customHeight="1"/>
+    <row r="972" ht="15.8" customHeight="1"/>
+    <row r="973" ht="15.8" customHeight="1"/>
+    <row r="974" ht="15.8" customHeight="1"/>
+    <row r="975" ht="15.8" customHeight="1"/>
+    <row r="976" ht="15.8" customHeight="1"/>
+    <row r="977" ht="15.8" customHeight="1"/>
+    <row r="978" ht="15.8" customHeight="1"/>
+    <row r="979" ht="15.8" customHeight="1"/>
+    <row r="980" ht="15.8" customHeight="1"/>
+    <row r="981" ht="15.8" customHeight="1"/>
+    <row r="982" ht="15.8" customHeight="1"/>
+    <row r="983" ht="15.8" customHeight="1"/>
+    <row r="984" ht="15.8" customHeight="1"/>
+    <row r="985" ht="15.8" customHeight="1"/>
+    <row r="986" ht="15.8" customHeight="1"/>
+    <row r="987" ht="15.8" customHeight="1"/>
+    <row r="988" ht="15.8" customHeight="1"/>
+    <row r="989" ht="15.8" customHeight="1"/>
+    <row r="990" ht="15.8" customHeight="1"/>
+    <row r="991" ht="15.8" customHeight="1"/>
+    <row r="992" ht="15.8" customHeight="1"/>
+    <row r="993" ht="15.8" customHeight="1"/>
+    <row r="994" ht="15.8" customHeight="1"/>
+    <row r="995" ht="15.8" customHeight="1"/>
+    <row r="996" ht="15.8" customHeight="1"/>
+    <row r="997" ht="15.8" customHeight="1"/>
+    <row r="998" ht="15.8" customHeight="1"/>
+    <row r="999" ht="15.8" customHeight="1"/>
+    <row r="1000" ht="15.8" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
